--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_8_29.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_8_29.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2119035.626650452</v>
+        <v>2109837.510064738</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6933941.905492766</v>
+        <v>7709817.8505524</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>806345.8827095092</v>
+        <v>806345.8827095097</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9916866.873169169</v>
+        <v>9858651.533082932</v>
       </c>
     </row>
     <row r="11">
@@ -659,7 +659,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -668,16 +668,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>34.37491744524166</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,13 +707,13 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -722,7 +722,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>120.6676984421422</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -823,7 +823,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>73.41805918135782</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -832,7 +832,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -865,7 +865,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -877,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>261.9025067912345</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -896,25 +896,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>290.8783469293132</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>299.7535019974427</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>12.9169039459368</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,22 +941,22 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -987,13 +987,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>136.5310119231965</v>
+        <v>136.0669836643703</v>
       </c>
       <c r="H6" t="n">
-        <v>104.3883541553076</v>
+        <v>99.90681807664345</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>45.44580843958667</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,16 +1020,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>20.90078060183509</v>
       </c>
       <c r="S6" t="n">
-        <v>156.5912426325231</v>
+        <v>147.9721212459916</v>
       </c>
       <c r="T6" t="n">
-        <v>196.8897623984489</v>
+        <v>195.0194028815133</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8879277888686</v>
+        <v>225.8573996139459</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -1051,22 +1051,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>123.6064608052456</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1075,7 +1075,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>17.69584188176898</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1102,13 +1102,13 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>205.3658819001186</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>21.83716898069566</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1120,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1133,7 +1133,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1145,13 +1145,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>12.9169039459368</v>
+        <v>411.4371413535349</v>
       </c>
       <c r="H8" t="n">
-        <v>315.0408840752156</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>87.20915304251038</v>
+        <v>61.44749355031652</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,10 +1181,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>101.3809955640923</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.1742023667267</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1224,13 +1224,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>136.0669836643703</v>
+        <v>135.275240877313</v>
       </c>
       <c r="H9" t="n">
-        <v>99.90681807664345</v>
+        <v>92.26024958059011</v>
       </c>
       <c r="I9" t="n">
-        <v>45.44580843958667</v>
+        <v>18.18624318344742</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,16 +1257,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.90078060183509</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>147.9721212459916</v>
+        <v>133.2658462320107</v>
       </c>
       <c r="T9" t="n">
-        <v>195.0194028815133</v>
+        <v>191.828123840699</v>
       </c>
       <c r="U9" t="n">
-        <v>225.8573996139459</v>
+        <v>225.8053112726921</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -1288,31 +1288,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>69.79806648325518</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.2570059982656</v>
       </c>
       <c r="H10" t="n">
-        <v>152.7120966692326</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>123.266557879417</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>17.69584188176898</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1339,13 +1339,13 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>193.7981713870603</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.5367941620016</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2244489913895</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1354,7 +1354,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>6.080763210941909</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1388,7 +1388,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1424,7 +1424,7 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
-        <v>250.995171958902</v>
+        <v>250.9951719589025</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1467,7 +1467,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,10 +1494,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S12" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T12" t="n">
         <v>190.7165703189231</v>
@@ -1528,16 +1528,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>166.0258082590282</v>
@@ -1576,25 +1576,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>7.601081015448278</v>
       </c>
       <c r="T13" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>150.0497138101759</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1616,7 +1616,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>410.9217256534534</v>
@@ -1658,7 +1658,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
-        <v>203.9179701396201</v>
+        <v>203.917970139621</v>
       </c>
       <c r="U14" t="n">
         <v>250.995171958902</v>
@@ -1762,16 +1762,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>68.41663978294419</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1780,7 +1780,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,19 +1810,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>197.4995743803894</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1941,7 +1941,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247734</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,25 +1999,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>40.30970411590487</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2050,25 +2050,25 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
-        <v>189.7690253314419</v>
+        <v>68.86295168018411</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2147,7 +2147,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2236,16 +2236,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>74.75769145492352</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2296,13 +2296,13 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>77.72357432107019</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2473,19 +2473,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>125.3958429098025</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>189.7690253314419</v>
@@ -2530,16 +2530,16 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>270.3808622796248</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2716,19 +2716,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2761,19 +2761,19 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>156.6571821981382</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2118382056129</v>
+        <v>72.33640507852775</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2947,19 +2947,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>126.095523708391</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>219.5489492761692</v>
+        <v>98.12640288586304</v>
       </c>
       <c r="U31" t="n">
         <v>286.2118382056129</v>
@@ -3016,7 +3016,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3184,16 +3184,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>82.57946083261906</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3202,10 +3202,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3247,10 +3247,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>100.1587511393846</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3424,25 +3424,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>19.48923120238923</v>
       </c>
       <c r="D37" t="n">
-        <v>65.77339612662152</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,10 +3469,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>219.5489492761692</v>
@@ -3481,7 +3481,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3557,7 +3557,7 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U38" t="n">
-        <v>250.995171958902</v>
+        <v>250.9951719589025</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3600,7 +3600,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I39" t="n">
-        <v>18.81721868247747</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3661,10 +3661,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>1.714088951548727</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -3676,7 +3676,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,10 +3706,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>156.8454273099543</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>219.5489492761692</v>
@@ -3721,13 +3721,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3749,7 +3749,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
         <v>410.9217256534534</v>
@@ -3837,7 +3837,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3895,7 +3895,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -3904,13 +3904,13 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>189.7690253314419</v>
@@ -3955,16 +3955,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V43" t="n">
-        <v>226.3390473392827</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>216.2486892180374</v>
       </c>
     </row>
     <row r="44">
@@ -3974,7 +3974,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881769</v>
       </c>
       <c r="T44" t="n">
         <v>203.9179701396201</v>
@@ -4135,10 +4135,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>41.8654572117312</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4153,7 +4153,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>40.94023685682393</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4201,7 +4201,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4304,28 +4304,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1187.828354776384</v>
+        <v>1584.82310067395</v>
       </c>
       <c r="C2" t="n">
-        <v>818.8658378359718</v>
+        <v>1584.82310067395</v>
       </c>
       <c r="D2" t="n">
-        <v>460.6001392292213</v>
+        <v>1226.5574020672</v>
       </c>
       <c r="E2" t="n">
-        <v>74.81188663097703</v>
+        <v>840.7691494689557</v>
       </c>
       <c r="F2" t="n">
-        <v>67.86638588177355</v>
+        <v>429.7832446793481</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036445</v>
+        <v>415.859840617939</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>88.66512065394187</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J2" t="n">
         <v>169.7108380533141</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834948</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="U2" t="n">
-        <v>1993.54646147304</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="V2" t="n">
-        <v>1662.48357412947</v>
+        <v>2311.057514205144</v>
       </c>
       <c r="W2" t="n">
-        <v>1309.714918859356</v>
+        <v>1958.28885893503</v>
       </c>
       <c r="X2" t="n">
-        <v>1187.828354776384</v>
+        <v>1584.82310067395</v>
       </c>
       <c r="Y2" t="n">
-        <v>1187.828354776384</v>
+        <v>1584.82310067395</v>
       </c>
     </row>
     <row r="3">
@@ -4383,49 +4383,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170821</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359551</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747037</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692481</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961333</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102423999</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4434,16 +4434,16 @@
         <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073962</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196741</v>
       </c>
       <c r="U3" t="n">
-        <v>2061.714576167582</v>
+        <v>2061.714576167581</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.562467935838</v>
       </c>
       <c r="W3" t="n">
         <v>1572.325111207637</v>
@@ -4452,7 +4452,7 @@
         <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
-        <v>1156.713312237151</v>
+        <v>1156.71331223715</v>
       </c>
     </row>
     <row r="4">
@@ -4462,31 +4462,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>285.8510101265796</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="C4" t="n">
-        <v>285.8510101265796</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="D4" t="n">
-        <v>285.8510101265796</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E4" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F4" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G4" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K4" t="n">
         <v>110.2451748866326</v>
@@ -4513,25 +4513,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W4" t="n">
-        <v>513.8405610245969</v>
+        <v>463.5809975486215</v>
       </c>
       <c r="X4" t="n">
-        <v>285.8510101265796</v>
+        <v>235.5914466506042</v>
       </c>
       <c r="Y4" t="n">
-        <v>285.8510101265796</v>
+        <v>235.5914466506042</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1130.934501327943</v>
+        <v>1602.481113437761</v>
       </c>
       <c r="C5" t="n">
-        <v>837.1179892781315</v>
+        <v>1233.518596497349</v>
       </c>
       <c r="D5" t="n">
-        <v>478.8522906713811</v>
+        <v>875.2528978905984</v>
       </c>
       <c r="E5" t="n">
-        <v>478.8522906713811</v>
+        <v>489.4646452923542</v>
       </c>
       <c r="F5" t="n">
-        <v>471.9067899221776</v>
+        <v>186.6833301434222</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>173.6359524202537</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>173.6359524202537</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>242.5828808341008</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>427.2572610952647</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224079</v>
+        <v>980.0705193414639</v>
       </c>
       <c r="M5" t="n">
-        <v>1362.238747280443</v>
+        <v>1166.769932166872</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1794.077600226718</v>
       </c>
       <c r="O5" t="n">
-        <v>2238.843319642689</v>
+        <v>2341.238804993795</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791252</v>
+        <v>2451.973130243322</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T5" t="n">
-        <v>2247.308246834948</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U5" t="n">
-        <v>2247.308246834948</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="V5" t="n">
-        <v>2247.308246834948</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="W5" t="n">
-        <v>1894.539591564834</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="X5" t="n">
-        <v>1521.073833303755</v>
+        <v>1992.620445413572</v>
       </c>
       <c r="Y5" t="n">
-        <v>1130.934501327943</v>
+        <v>1602.481113437761</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>967.3646662469702</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>792.9116369658432</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>643.9772273045919</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>484.7397722991365</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>338.2052143260215</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>200.7638166852434</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673424</v>
+        <v>99.84783883004798</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>172.6022336772601</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>502.03063798307</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>1006.392177849189</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1233.514064314702</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1432.170805967367</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>1981.606814720089</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2405.574583200926</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2636.288039261394</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2615.176139663581</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2465.709350526216</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2268.720054686303</v>
       </c>
       <c r="U6" t="n">
-        <v>2061.714576167582</v>
+        <v>2040.581267197469</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1805.429158965726</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207638</v>
+        <v>1551.191802237525</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002105</v>
+        <v>1343.340302031992</v>
       </c>
       <c r="Y6" t="n">
-        <v>1156.713312237151</v>
+        <v>1135.580003267038</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>325.6879402326643</v>
+        <v>535.2274556646471</v>
       </c>
       <c r="C7" t="n">
-        <v>200.8329293182748</v>
+        <v>535.2274556646471</v>
       </c>
       <c r="D7" t="n">
-        <v>200.8329293182748</v>
+        <v>535.2274556646471</v>
       </c>
       <c r="E7" t="n">
-        <v>200.8329293182748</v>
+        <v>387.314362082254</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>240.4244145843437</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>71.81756957972706</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>71.81756957972706</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>71.81756957972706</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K7" t="n">
-        <v>110.2451748866326</v>
+        <v>154.9909114159743</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>339.8239063167927</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>545.0935070360306</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>750.9168718721348</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>925.0117672607337</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>1050.459343859349</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>846.4373785321145</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>824.3796320869674</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>535.2274556646471</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064342</v>
+        <v>535.2274556646471</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064342</v>
+        <v>535.2274556646471</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064342</v>
+        <v>535.2274556646471</v>
       </c>
       <c r="Y7" t="n">
-        <v>507.3364050629041</v>
+        <v>535.2274556646471</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1253.251950079336</v>
+        <v>942.5901339875998</v>
       </c>
       <c r="C8" t="n">
-        <v>884.2894331389243</v>
+        <v>942.5901339875998</v>
       </c>
       <c r="D8" t="n">
-        <v>884.2894331389243</v>
+        <v>942.5901339875998</v>
       </c>
       <c r="E8" t="n">
-        <v>884.2894331389243</v>
+        <v>942.5901339875998</v>
       </c>
       <c r="F8" t="n">
-        <v>473.3035283493168</v>
+        <v>531.6042291979921</v>
       </c>
       <c r="G8" t="n">
-        <v>460.2561506261483</v>
+        <v>116.0111571237145</v>
       </c>
       <c r="H8" t="n">
-        <v>142.0330353986578</v>
+        <v>116.0111571237145</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>242.5828808341008</v>
+        <v>199.5143021373488</v>
       </c>
       <c r="K8" t="n">
-        <v>646.0499938541462</v>
+        <v>468.4264940665503</v>
       </c>
       <c r="L8" t="n">
-        <v>859.6366960149613</v>
+        <v>838.9376088552594</v>
       </c>
       <c r="M8" t="n">
-        <v>1491.354506998273</v>
+        <v>1282.872051350724</v>
       </c>
       <c r="N8" t="n">
-        <v>1685.688719890255</v>
+        <v>1738.603625623768</v>
       </c>
       <c r="O8" t="n">
-        <v>2232.849924657333</v>
+        <v>2155.602766936376</v>
       </c>
       <c r="P8" t="n">
-        <v>2662.164970996627</v>
+        <v>2477.000885571628</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2670.18474111696</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2594.744044993887</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2386.487274926486</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018222</v>
+        <v>2386.487274926486</v>
       </c>
       <c r="V8" t="n">
-        <v>2366.086203674652</v>
+        <v>2055.424387582916</v>
       </c>
       <c r="W8" t="n">
-        <v>2013.317548404538</v>
+        <v>1702.655732312801</v>
       </c>
       <c r="X8" t="n">
-        <v>1639.851790143458</v>
+        <v>1329.189974051721</v>
       </c>
       <c r="Y8" t="n">
-        <v>1639.851790143458</v>
+        <v>1329.189974051721</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>967.3646662469702</v>
+        <v>931.3062050962127</v>
       </c>
       <c r="C9" t="n">
-        <v>792.9116369658432</v>
+        <v>756.8531758150857</v>
       </c>
       <c r="D9" t="n">
-        <v>643.9772273045919</v>
+        <v>607.9187661538344</v>
       </c>
       <c r="E9" t="n">
-        <v>484.7397722991365</v>
+        <v>448.681311148379</v>
       </c>
       <c r="F9" t="n">
-        <v>338.2052143260214</v>
+        <v>302.1467531752639</v>
       </c>
       <c r="G9" t="n">
-        <v>200.7638166852434</v>
+        <v>165.5050957234327</v>
       </c>
       <c r="H9" t="n">
-        <v>99.84783883004796</v>
+        <v>72.3129244299073</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>121.8264159807867</v>
       </c>
       <c r="K9" t="n">
-        <v>121.5508014837215</v>
+        <v>537.8115956207097</v>
       </c>
       <c r="L9" t="n">
-        <v>585.1290695857516</v>
+        <v>845.2309936650815</v>
       </c>
       <c r="M9" t="n">
-        <v>764.6264059403564</v>
+        <v>1223.331799318883</v>
       </c>
       <c r="N9" t="n">
-        <v>1432.170805967367</v>
+        <v>1625.848453140027</v>
       </c>
       <c r="O9" t="n">
-        <v>1981.606814720089</v>
+        <v>1971.85275817634</v>
       </c>
       <c r="P9" t="n">
-        <v>2405.574583200926</v>
+        <v>2230.218651003075</v>
       </c>
       <c r="Q9" t="n">
-        <v>2636.288039261394</v>
+        <v>2560.986726597623</v>
       </c>
       <c r="R9" t="n">
-        <v>2615.176139663581</v>
+        <v>2560.986726597623</v>
       </c>
       <c r="S9" t="n">
-        <v>2465.709350526216</v>
+        <v>2426.374760706703</v>
       </c>
       <c r="T9" t="n">
-        <v>2268.720054686303</v>
+        <v>2232.608979049431</v>
       </c>
       <c r="U9" t="n">
-        <v>2040.581267197469</v>
+        <v>2004.522806046712</v>
       </c>
       <c r="V9" t="n">
-        <v>1805.429158965726</v>
+        <v>1769.370697814969</v>
       </c>
       <c r="W9" t="n">
-        <v>1551.191802237525</v>
+        <v>1515.133341086767</v>
       </c>
       <c r="X9" t="n">
-        <v>1343.340302031992</v>
+        <v>1307.281840881235</v>
       </c>
       <c r="Y9" t="n">
-        <v>1135.580003267038</v>
+        <v>1099.521542116281</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>571.203624175805</v>
+        <v>537.7054819413995</v>
       </c>
       <c r="C10" t="n">
-        <v>500.7005267179715</v>
+        <v>368.7692990134926</v>
       </c>
       <c r="D10" t="n">
-        <v>350.5838873056357</v>
+        <v>368.7692990134926</v>
       </c>
       <c r="E10" t="n">
-        <v>350.5838873056357</v>
+        <v>368.7692990134926</v>
       </c>
       <c r="F10" t="n">
-        <v>350.5838873056357</v>
+        <v>221.8793515155822</v>
       </c>
       <c r="G10" t="n">
-        <v>350.5838873056357</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H10" t="n">
-        <v>196.3292442054008</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I10" t="n">
-        <v>71.81756957972706</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>82.88339090485943</v>
       </c>
       <c r="K10" t="n">
-        <v>154.9909114159743</v>
+        <v>260.2782098866546</v>
       </c>
       <c r="L10" t="n">
-        <v>339.8239063167927</v>
+        <v>542.8089378877605</v>
       </c>
       <c r="M10" t="n">
-        <v>545.0935070360306</v>
+        <v>851.0870999282812</v>
       </c>
       <c r="N10" t="n">
-        <v>750.9168718721348</v>
+        <v>1157.469712732903</v>
       </c>
       <c r="O10" t="n">
-        <v>925.0117672607337</v>
+        <v>1424.447349606354</v>
       </c>
       <c r="P10" t="n">
-        <v>1050.459343859349</v>
+        <v>1629.372157534689</v>
       </c>
       <c r="Q10" t="n">
-        <v>1053.877663279709</v>
+        <v>1687.816392302166</v>
       </c>
       <c r="R10" t="n">
-        <v>1053.877663279709</v>
+        <v>1687.816392302166</v>
       </c>
       <c r="S10" t="n">
-        <v>1053.877663279709</v>
+        <v>1492.060663628368</v>
       </c>
       <c r="T10" t="n">
-        <v>1053.877663279709</v>
+        <v>1269.296225080891</v>
       </c>
       <c r="U10" t="n">
-        <v>1053.877663279709</v>
+        <v>980.1806200390836</v>
       </c>
       <c r="V10" t="n">
-        <v>799.1931750738223</v>
+        <v>725.4961318331967</v>
       </c>
       <c r="W10" t="n">
-        <v>799.1931750738223</v>
+        <v>725.4961318331967</v>
       </c>
       <c r="X10" t="n">
-        <v>571.203624175805</v>
+        <v>719.3539467716392</v>
       </c>
       <c r="Y10" t="n">
-        <v>571.203624175805</v>
+        <v>719.3539467716392</v>
       </c>
     </row>
     <row r="11">
@@ -5015,7 +5015,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C11" t="n">
         <v>2005.253839749764</v>
@@ -5030,46 +5030,46 @@
         <v>850.213983755162</v>
       </c>
       <c r="G11" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H11" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089256</v>
       </c>
       <c r="I11" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J11" t="n">
-        <v>318.2383484401497</v>
+        <v>351.3014367967911</v>
       </c>
       <c r="K11" t="n">
-        <v>972.9616805754492</v>
+        <v>685.1208104866377</v>
       </c>
       <c r="L11" t="n">
-        <v>1837.480496228804</v>
+        <v>1549.639626139993</v>
       </c>
       <c r="M11" t="n">
-        <v>2816.030799058633</v>
+        <v>2528.189928969821</v>
       </c>
       <c r="N11" t="n">
-        <v>3362.809616117415</v>
+        <v>3507.942201196468</v>
       </c>
       <c r="O11" t="n">
-        <v>3865.782086996752</v>
+        <v>4010.914672075805</v>
       </c>
       <c r="P11" t="n">
-        <v>4260.55645335393</v>
+        <v>4405.689038432984</v>
       </c>
       <c r="Q11" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R11" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S11" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T11" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U11" t="n">
         <v>4208.252829604874</v>
@@ -5094,37 +5094,37 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973203</v>
       </c>
       <c r="C12" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161933</v>
       </c>
       <c r="D12" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549422</v>
       </c>
       <c r="E12" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494866</v>
       </c>
       <c r="F12" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763717</v>
       </c>
       <c r="G12" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089899</v>
       </c>
       <c r="H12" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I12" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J12" t="n">
-        <v>189.2383039390118</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K12" t="n">
         <v>427.5025029193589</v>
       </c>
       <c r="L12" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320245</v>
       </c>
       <c r="M12" t="n">
         <v>1241.47698845434</v>
@@ -5139,7 +5139,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q12" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R12" t="n">
         <v>2593.958107142068</v>
@@ -5148,22 +5148,22 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T12" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313404</v>
       </c>
       <c r="U12" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.80937344782</v>
       </c>
       <c r="V12" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216077</v>
       </c>
       <c r="W12" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487875</v>
       </c>
       <c r="X12" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y12" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="13">
@@ -5173,43 +5173,43 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>727.0030950818858</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="C13" t="n">
-        <v>558.0669121539789</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="D13" t="n">
-        <v>558.0669121539789</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="E13" t="n">
-        <v>410.1538185715858</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="F13" t="n">
         <v>263.2638710736754</v>
       </c>
       <c r="G13" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H13" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I13" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J13" t="n">
         <v>140.68366689533</v>
       </c>
       <c r="K13" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442065</v>
       </c>
       <c r="L13" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927027</v>
       </c>
       <c r="M13" t="n">
-        <v>1005.387693892251</v>
+        <v>1005.387693892252</v>
       </c>
       <c r="N13" t="n">
-        <v>1346.796070598116</v>
+        <v>1346.796070598117</v>
       </c>
       <c r="O13" t="n">
         <v>1646.12566951853</v>
@@ -5224,25 +5224,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S13" t="n">
-        <v>1764.65758193153</v>
+        <v>1948.66560649314</v>
       </c>
       <c r="T13" t="n">
-        <v>1542.890966501056</v>
+        <v>1726.898991062666</v>
       </c>
       <c r="U13" t="n">
-        <v>1542.890966501056</v>
+        <v>1437.79612418831</v>
       </c>
       <c r="V13" t="n">
-        <v>1288.206478295169</v>
+        <v>1183.111635982423</v>
       </c>
       <c r="W13" t="n">
-        <v>1288.206478295169</v>
+        <v>893.6944659454626</v>
       </c>
       <c r="X13" t="n">
-        <v>1060.216927397152</v>
+        <v>665.7049150474453</v>
       </c>
       <c r="Y13" t="n">
-        <v>908.6515599121255</v>
+        <v>444.9123359039152</v>
       </c>
     </row>
     <row r="14">
@@ -5252,13 +5252,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C14" t="n">
         <v>2005.253839749764</v>
       </c>
       <c r="D14" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E14" t="n">
         <v>1261.199888544769</v>
@@ -5267,43 +5267,43 @@
         <v>850.213983755162</v>
       </c>
       <c r="G14" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001586</v>
       </c>
       <c r="H14" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089258</v>
       </c>
       <c r="I14" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J14" t="n">
-        <v>451.8458144277729</v>
+        <v>416.1091927888621</v>
       </c>
       <c r="K14" t="n">
-        <v>785.6651881176194</v>
+        <v>1070.832524924162</v>
       </c>
       <c r="L14" t="n">
-        <v>1236.699401366028</v>
+        <v>1521.86673817257</v>
       </c>
       <c r="M14" t="n">
-        <v>2215.249704195857</v>
+        <v>2055.398642844495</v>
       </c>
       <c r="N14" t="n">
-        <v>2762.028521254639</v>
+        <v>2602.177459903277</v>
       </c>
       <c r="O14" t="n">
-        <v>3641.993171584094</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P14" t="n">
-        <v>4260.55645335393</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q14" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R14" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S14" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T14" t="n">
         <v>4461.783306331037</v>
@@ -5331,37 +5331,37 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C15" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D15" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E15" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F15" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G15" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H15" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I15" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J15" t="n">
         <v>189.2383039390118</v>
       </c>
       <c r="K15" t="n">
-        <v>427.5025029193589</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L15" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M15" t="n">
         <v>1241.47698845434</v>
@@ -5388,7 +5388,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U15" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V15" t="n">
         <v>1808.657265216076</v>
@@ -5397,10 +5397,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X15" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y15" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="16">
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>647.5249577361934</v>
+        <v>582.3166934139181</v>
       </c>
       <c r="C16" t="n">
-        <v>478.5887748082865</v>
+        <v>413.3805104860112</v>
       </c>
       <c r="D16" t="n">
-        <v>478.5887748082865</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="E16" t="n">
-        <v>409.4810578558177</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="F16" t="n">
-        <v>409.4810578558177</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G16" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H16" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I16" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J16" t="n">
         <v>140.68366689533</v>
@@ -5458,28 +5458,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R16" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S16" t="n">
-        <v>1674.827124689058</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T16" t="n">
-        <v>1674.827124689058</v>
+        <v>1756.848946528553</v>
       </c>
       <c r="U16" t="n">
-        <v>1385.724257814702</v>
+        <v>1756.848946528553</v>
       </c>
       <c r="V16" t="n">
-        <v>1385.724257814702</v>
+        <v>1502.164458322666</v>
       </c>
       <c r="W16" t="n">
-        <v>1096.307087777741</v>
+        <v>1212.747288285705</v>
       </c>
       <c r="X16" t="n">
-        <v>868.3175368797235</v>
+        <v>984.7577373876879</v>
       </c>
       <c r="Y16" t="n">
-        <v>647.5249577361934</v>
+        <v>763.9651582441578</v>
       </c>
     </row>
     <row r="17">
@@ -5489,7 +5489,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C17" t="n">
         <v>2005.253839749764</v>
@@ -5498,7 +5498,7 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E17" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F17" t="n">
         <v>850.213983755162</v>
@@ -5513,22 +5513,22 @@
         <v>95.56103444839441</v>
       </c>
       <c r="J17" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K17" t="n">
-        <v>785.6651881176194</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L17" t="n">
-        <v>1236.699401366028</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M17" t="n">
-        <v>2215.249704195857</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N17" t="n">
-        <v>2877.428556330835</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O17" t="n">
-        <v>3757.39320666029</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P17" t="n">
         <v>4470.748294107236</v>
@@ -5549,16 +5549,16 @@
         <v>4208.252829604874</v>
       </c>
       <c r="V17" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W17" t="n">
         <v>3524.421286991189</v>
       </c>
       <c r="X17" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y17" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3154.542034367488</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C18" t="n">
-        <v>2980.089005086361</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D18" t="n">
-        <v>2831.15459542511</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E18" t="n">
-        <v>2671.917140419654</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F18" t="n">
-        <v>2525.382582446539</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G18" t="n">
-        <v>2389.019482279157</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H18" t="n">
-        <v>2298.517587917024</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I18" t="n">
-        <v>2279.510296318562</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J18" t="n">
-        <v>2373.187565809179</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K18" t="n">
-        <v>2611.451764789527</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L18" t="n">
-        <v>2978.149925102192</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M18" t="n">
-        <v>3425.426250324508</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N18" t="n">
-        <v>3898.949293878963</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O18" t="n">
-        <v>4309.910573297017</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P18" t="n">
-        <v>4620.41016477312</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q18" t="n">
-        <v>4778.05172241972</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R18" t="n">
-        <v>4777.907369012236</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S18" t="n">
-        <v>4648.469482505716</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T18" t="n">
-        <v>4455.826482183571</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U18" t="n">
-        <v>4227.758635317987</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V18" t="n">
-        <v>3992.606527086244</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W18" t="n">
-        <v>3738.369170358043</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X18" t="n">
-        <v>3530.51767015251</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y18" t="n">
-        <v>3322.757371387556</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="19">
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>620.8300204283238</v>
+        <v>876.4469737784534</v>
       </c>
       <c r="C19" t="n">
-        <v>451.8938375004169</v>
+        <v>707.5107908505465</v>
       </c>
       <c r="D19" t="n">
-        <v>451.8938375004169</v>
+        <v>557.3941514382108</v>
       </c>
       <c r="E19" t="n">
-        <v>303.9807439180238</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="F19" t="n">
-        <v>263.2638710736754</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="G19" t="n">
-        <v>95.56103444839441</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H19" t="n">
         <v>95.56103444839441</v>
@@ -5698,25 +5698,25 @@
         <v>1866.513008862232</v>
       </c>
       <c r="S19" t="n">
-        <v>1674.827124689058</v>
+        <v>1796.954471811541</v>
       </c>
       <c r="T19" t="n">
-        <v>1674.827124689058</v>
+        <v>1575.187856381067</v>
       </c>
       <c r="U19" t="n">
-        <v>1385.724257814702</v>
+        <v>1286.08498950671</v>
       </c>
       <c r="V19" t="n">
-        <v>1131.039769608815</v>
+        <v>1286.08498950671</v>
       </c>
       <c r="W19" t="n">
-        <v>841.6225995718539</v>
+        <v>1286.08498950671</v>
       </c>
       <c r="X19" t="n">
-        <v>841.6225995718539</v>
+        <v>1058.095438608693</v>
       </c>
       <c r="Y19" t="n">
-        <v>620.8300204283238</v>
+        <v>1058.095438608693</v>
       </c>
     </row>
     <row r="20">
@@ -5726,7 +5726,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C20" t="n">
         <v>2005.253839749764</v>
@@ -5735,13 +5735,13 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E20" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F20" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551618</v>
       </c>
       <c r="G20" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H20" t="n">
         <v>137.5579332089257</v>
@@ -5759,19 +5759,19 @@
         <v>1482.778354750621</v>
       </c>
       <c r="M20" t="n">
-        <v>2265.5904835978</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N20" t="n">
-        <v>2812.369300656582</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O20" t="n">
-        <v>3692.333950986037</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P20" t="n">
-        <v>4405.689038432983</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q20" t="n">
-        <v>4653.975400188665</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R20" t="n">
         <v>4778.05172241972</v>
@@ -5795,7 +5795,7 @@
         <v>3150.955528730109</v>
       </c>
       <c r="Y20" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="21">
@@ -5832,10 +5832,10 @@
         <v>189.2383039390118</v>
       </c>
       <c r="K21" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L21" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M21" t="n">
         <v>1241.47698845434</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>393.5907674431232</v>
+        <v>2917.269290763411</v>
       </c>
       <c r="C22" t="n">
-        <v>393.5907674431232</v>
+        <v>2917.269290763411</v>
       </c>
       <c r="D22" t="n">
-        <v>243.4741280307875</v>
+        <v>2917.269290763411</v>
       </c>
       <c r="E22" t="n">
-        <v>95.56103444839441</v>
+        <v>2917.269290763411</v>
       </c>
       <c r="F22" t="n">
-        <v>95.56103444839441</v>
+        <v>2917.269290763411</v>
       </c>
       <c r="G22" t="n">
-        <v>95.56103444839441</v>
+        <v>2917.269290763411</v>
       </c>
       <c r="H22" t="n">
-        <v>95.56103444839441</v>
+        <v>2917.269290763411</v>
       </c>
       <c r="I22" t="n">
-        <v>95.56103444839441</v>
+        <v>2917.269290763411</v>
       </c>
       <c r="J22" t="n">
-        <v>140.68366689533</v>
+        <v>2962.391923210347</v>
       </c>
       <c r="K22" t="n">
-        <v>344.6708498442064</v>
+        <v>3166.379106159223</v>
       </c>
       <c r="L22" t="n">
-        <v>661.2306482927024</v>
+        <v>3482.938904607719</v>
       </c>
       <c r="M22" t="n">
-        <v>1005.387693892251</v>
+        <v>3827.095950207268</v>
       </c>
       <c r="N22" t="n">
-        <v>1346.796070598116</v>
+        <v>4168.504326913133</v>
       </c>
       <c r="O22" t="n">
-        <v>1646.12566951853</v>
+        <v>4467.833925833546</v>
       </c>
       <c r="P22" t="n">
-        <v>1878.733169952189</v>
+        <v>4700.441426267205</v>
       </c>
       <c r="Q22" t="n">
-        <v>1956.343466104704</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="R22" t="n">
-        <v>1866.513008862232</v>
+        <v>4688.221265177248</v>
       </c>
       <c r="S22" t="n">
-        <v>1674.827124689058</v>
+        <v>4496.535381004074</v>
       </c>
       <c r="T22" t="n">
-        <v>1453.060509258584</v>
+        <v>4274.7687655736</v>
       </c>
       <c r="U22" t="n">
-        <v>1163.957642384228</v>
+        <v>3985.665898699243</v>
       </c>
       <c r="V22" t="n">
-        <v>1163.957642384228</v>
+        <v>3730.981410493357</v>
       </c>
       <c r="W22" t="n">
-        <v>874.540472347267</v>
+        <v>3441.564240456396</v>
       </c>
       <c r="X22" t="n">
-        <v>796.0318114168931</v>
+        <v>3213.574689558379</v>
       </c>
       <c r="Y22" t="n">
-        <v>575.239232273363</v>
+        <v>2992.782110414849</v>
       </c>
     </row>
     <row r="23">
@@ -5975,10 +5975,10 @@
         <v>1261.19988854477</v>
       </c>
       <c r="F23" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551618</v>
       </c>
       <c r="G23" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H23" t="n">
         <v>137.5579332089257</v>
@@ -5987,28 +5987,28 @@
         <v>95.56103444839441</v>
       </c>
       <c r="J23" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K23" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L23" t="n">
-        <v>1971.087962216427</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M23" t="n">
-        <v>2584.171204687567</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N23" t="n">
-        <v>3130.95002174635</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O23" t="n">
-        <v>4010.914672075804</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P23" t="n">
-        <v>4405.689038432983</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q23" t="n">
-        <v>4653.975400188665</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R23" t="n">
         <v>4778.05172241972</v>
@@ -6069,10 +6069,10 @@
         <v>189.2383039390118</v>
       </c>
       <c r="K24" t="n">
-        <v>427.5025029193589</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L24" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M24" t="n">
         <v>1241.47698845434</v>
@@ -6121,16 +6121,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>688.1662718722065</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="C25" t="n">
-        <v>519.2300889442996</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="D25" t="n">
-        <v>369.1134495319639</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="E25" t="n">
-        <v>242.4509819463048</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F25" t="n">
         <v>95.56103444839441</v>
@@ -6169,28 +6169,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R25" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S25" t="n">
-        <v>1674.827124689058</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T25" t="n">
-        <v>1453.060509258584</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U25" t="n">
-        <v>1453.060509258584</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V25" t="n">
-        <v>1198.376021052697</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W25" t="n">
-        <v>908.9588510157366</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X25" t="n">
-        <v>908.9588510157366</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y25" t="n">
-        <v>688.1662718722065</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C26" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D26" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E26" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F26" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551634</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H26" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I26" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J26" t="n">
-        <v>284.4401654074198</v>
+        <v>284.4401654074199</v>
       </c>
       <c r="K26" t="n">
-        <v>618.2595390972663</v>
+        <v>618.2595390972664</v>
       </c>
       <c r="L26" t="n">
-        <v>1069.293752345675</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M26" t="n">
-        <v>1999.417367126748</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N26" t="n">
-        <v>2979.169639353394</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O26" t="n">
-        <v>3482.142110232731</v>
+        <v>4075.973927750059</v>
       </c>
       <c r="P26" t="n">
-        <v>4195.497197679677</v>
+        <v>4470.748294107238</v>
       </c>
       <c r="Q26" t="n">
-        <v>4653.975400188665</v>
+        <v>4719.03465586292</v>
       </c>
       <c r="R26" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419722</v>
       </c>
       <c r="S26" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946817</v>
       </c>
       <c r="T26" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331039</v>
       </c>
       <c r="U26" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V26" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W26" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X26" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y26" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="27">
@@ -6279,34 +6279,34 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C27" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D27" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E27" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F27" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G27" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H27" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I27" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J27" t="n">
         <v>189.2383039390118</v>
       </c>
       <c r="K27" t="n">
-        <v>427.5025029193589</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L27" t="n">
         <v>794.2006632320243</v>
@@ -6336,7 +6336,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U27" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V27" t="n">
         <v>1808.657265216076</v>
@@ -6345,10 +6345,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X27" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y27" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="28">
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>432.2000540015823</v>
+        <v>708.7441371531723</v>
       </c>
       <c r="C28" t="n">
-        <v>263.2638710736754</v>
+        <v>539.8079542252655</v>
       </c>
       <c r="D28" t="n">
-        <v>263.2638710736754</v>
+        <v>389.6913148129298</v>
       </c>
       <c r="E28" t="n">
-        <v>263.2638710736754</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="F28" t="n">
-        <v>263.2638710736754</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="G28" t="n">
-        <v>95.56103444839441</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H28" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="I28" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J28" t="n">
         <v>140.68366689533</v>
@@ -6409,25 +6409,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S28" t="n">
-        <v>1764.65758193153</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T28" t="n">
-        <v>1606.418003953613</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="U28" t="n">
-        <v>1317.315137079256</v>
+        <v>1883.276390267807</v>
       </c>
       <c r="V28" t="n">
-        <v>1062.630648873369</v>
+        <v>1628.59190206192</v>
       </c>
       <c r="W28" t="n">
-        <v>1062.630648873369</v>
+        <v>1339.174732024959</v>
       </c>
       <c r="X28" t="n">
-        <v>834.6410979753522</v>
+        <v>1111.185181126942</v>
       </c>
       <c r="Y28" t="n">
-        <v>613.848518831822</v>
+        <v>890.3926019834121</v>
       </c>
     </row>
     <row r="29">
@@ -6437,52 +6437,52 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C29" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D29" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E29" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F29" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G29" t="n">
-        <v>435.1415336001586</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H29" t="n">
-        <v>137.5579332089258</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I29" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J29" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K29" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L29" t="n">
-        <v>1605.62090185774</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M29" t="n">
-        <v>2584.171204687568</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N29" t="n">
-        <v>3130.950021746351</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O29" t="n">
-        <v>4010.914672075805</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P29" t="n">
-        <v>4405.689038432984</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q29" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R29" t="n">
         <v>4778.051722419721</v>
@@ -6494,19 +6494,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U29" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V29" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W29" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X29" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y29" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="30">
@@ -6516,37 +6516,37 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C30" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D30" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E30" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F30" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G30" t="n">
-        <v>205.0702204089888</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H30" t="n">
-        <v>114.5683260468563</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I30" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J30" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K30" t="n">
-        <v>427.5025029193589</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L30" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M30" t="n">
         <v>1241.47698845434</v>
@@ -6558,22 +6558,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P30" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q30" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R30" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S30" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T30" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U30" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V30" t="n">
         <v>1808.657265216076</v>
@@ -6582,10 +6582,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X30" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y30" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>391.866433243363</v>
+        <v>3215.299023758141</v>
       </c>
       <c r="C31" t="n">
-        <v>222.930250315456</v>
+        <v>3215.299023758141</v>
       </c>
       <c r="D31" t="n">
-        <v>222.930250315456</v>
+        <v>3065.182384345805</v>
       </c>
       <c r="E31" t="n">
-        <v>222.930250315456</v>
+        <v>2917.269290763412</v>
       </c>
       <c r="F31" t="n">
-        <v>95.56103444839442</v>
+        <v>2917.269290763412</v>
       </c>
       <c r="G31" t="n">
-        <v>95.56103444839442</v>
+        <v>2917.269290763412</v>
       </c>
       <c r="H31" t="n">
-        <v>95.56103444839442</v>
+        <v>2917.269290763412</v>
       </c>
       <c r="I31" t="n">
-        <v>95.56103444839442</v>
+        <v>2917.269290763412</v>
       </c>
       <c r="J31" t="n">
-        <v>140.68366689533</v>
+        <v>2962.391923210348</v>
       </c>
       <c r="K31" t="n">
-        <v>344.6708498442064</v>
+        <v>3166.379106159224</v>
       </c>
       <c r="L31" t="n">
-        <v>661.2306482927024</v>
+        <v>3482.93890460772</v>
       </c>
       <c r="M31" t="n">
-        <v>1005.387693892251</v>
+        <v>3827.095950207269</v>
       </c>
       <c r="N31" t="n">
-        <v>1346.796070598116</v>
+        <v>4168.504326913134</v>
       </c>
       <c r="O31" t="n">
-        <v>1646.12566951853</v>
+        <v>4467.833925833547</v>
       </c>
       <c r="P31" t="n">
-        <v>1878.733169952189</v>
+        <v>4700.441426267206</v>
       </c>
       <c r="Q31" t="n">
-        <v>1956.343466104704</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="R31" t="n">
-        <v>1866.513008862232</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S31" t="n">
-        <v>1674.827124689058</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="T31" t="n">
-        <v>1453.060509258584</v>
+        <v>4678.934143747132</v>
       </c>
       <c r="U31" t="n">
-        <v>1163.957642384228</v>
+        <v>4389.831276872776</v>
       </c>
       <c r="V31" t="n">
-        <v>909.2731541783409</v>
+        <v>4135.146788666889</v>
       </c>
       <c r="W31" t="n">
-        <v>619.8559841413803</v>
+        <v>3845.729618629928</v>
       </c>
       <c r="X31" t="n">
-        <v>391.866433243363</v>
+        <v>3617.740067731911</v>
       </c>
       <c r="Y31" t="n">
-        <v>391.866433243363</v>
+        <v>3396.947488588381</v>
       </c>
     </row>
     <row r="32">
@@ -6698,28 +6698,28 @@
         <v>95.56103444839441</v>
       </c>
       <c r="J32" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K32" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L32" t="n">
-        <v>1557.603359811481</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M32" t="n">
-        <v>2091.135264483406</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N32" t="n">
-        <v>2812.369300656582</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O32" t="n">
-        <v>3692.333950986037</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P32" t="n">
-        <v>4405.689038432983</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q32" t="n">
-        <v>4653.975400188665</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R32" t="n">
         <v>4778.05172241972</v>
@@ -6780,10 +6780,10 @@
         <v>189.2383039390118</v>
       </c>
       <c r="K33" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L33" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M33" t="n">
         <v>1241.47698845434</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>580.1131475839754</v>
+        <v>3647.567813692731</v>
       </c>
       <c r="C34" t="n">
-        <v>411.1769646560685</v>
+        <v>3478.631630764824</v>
       </c>
       <c r="D34" t="n">
-        <v>411.1769646560685</v>
+        <v>3328.514991352489</v>
       </c>
       <c r="E34" t="n">
-        <v>263.2638710736754</v>
+        <v>3328.514991352489</v>
       </c>
       <c r="F34" t="n">
-        <v>263.2638710736754</v>
+        <v>3328.514991352489</v>
       </c>
       <c r="G34" t="n">
-        <v>95.56103444839441</v>
+        <v>3160.812154727208</v>
       </c>
       <c r="H34" t="n">
-        <v>95.56103444839441</v>
+        <v>3014.594967945065</v>
       </c>
       <c r="I34" t="n">
-        <v>95.56103444839441</v>
+        <v>2917.269290763411</v>
       </c>
       <c r="J34" t="n">
-        <v>140.68366689533</v>
+        <v>2962.391923210347</v>
       </c>
       <c r="K34" t="n">
-        <v>344.6708498442064</v>
+        <v>3166.379106159223</v>
       </c>
       <c r="L34" t="n">
-        <v>661.2306482927024</v>
+        <v>3482.938904607719</v>
       </c>
       <c r="M34" t="n">
-        <v>1005.387693892251</v>
+        <v>3827.095950207268</v>
       </c>
       <c r="N34" t="n">
-        <v>1346.796070598116</v>
+        <v>4168.504326913133</v>
       </c>
       <c r="O34" t="n">
-        <v>1646.12566951853</v>
+        <v>4467.833925833546</v>
       </c>
       <c r="P34" t="n">
-        <v>1878.733169952189</v>
+        <v>4700.441426267205</v>
       </c>
       <c r="Q34" t="n">
-        <v>1956.343466104704</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="R34" t="n">
-        <v>1866.513008862232</v>
+        <v>4688.221265177248</v>
       </c>
       <c r="S34" t="n">
-        <v>1674.827124689058</v>
+        <v>4496.535381004074</v>
       </c>
       <c r="T34" t="n">
-        <v>1453.060509258584</v>
+        <v>4274.7687655736</v>
       </c>
       <c r="U34" t="n">
-        <v>1163.957642384228</v>
+        <v>3985.665898699243</v>
       </c>
       <c r="V34" t="n">
-        <v>909.2731541783409</v>
+        <v>3730.981410493357</v>
       </c>
       <c r="W34" t="n">
-        <v>808.1026984819928</v>
+        <v>3730.981410493357</v>
       </c>
       <c r="X34" t="n">
-        <v>580.1131475839754</v>
+        <v>3730.981410493357</v>
       </c>
       <c r="Y34" t="n">
-        <v>580.1131475839754</v>
+        <v>3730.981410493357</v>
       </c>
     </row>
     <row r="35">
@@ -6938,25 +6938,25 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K35" t="n">
-        <v>939.1634975427194</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L35" t="n">
-        <v>1803.682313196074</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M35" t="n">
-        <v>2337.214217867999</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N35" t="n">
-        <v>2883.993034926781</v>
+        <v>3008.107474639232</v>
       </c>
       <c r="O35" t="n">
-        <v>3692.333950986037</v>
+        <v>3888.072124968687</v>
       </c>
       <c r="P35" t="n">
-        <v>4405.689038432983</v>
+        <v>4282.846491325865</v>
       </c>
       <c r="Q35" t="n">
-        <v>4653.975400188665</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R35" t="n">
         <v>4778.05172241972</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>646.5509214492497</v>
+        <v>673.3827746590082</v>
       </c>
       <c r="C37" t="n">
-        <v>477.6147385213428</v>
+        <v>653.6966825353827</v>
       </c>
       <c r="D37" t="n">
-        <v>411.1769646560685</v>
+        <v>653.6966825353827</v>
       </c>
       <c r="E37" t="n">
-        <v>263.2638710736754</v>
+        <v>653.6966825353827</v>
       </c>
       <c r="F37" t="n">
-        <v>263.2638710736754</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="G37" t="n">
-        <v>95.56103444839441</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="H37" t="n">
-        <v>95.56103444839441</v>
+        <v>192.886711630049</v>
       </c>
       <c r="I37" t="n">
         <v>95.56103444839441</v>
@@ -7117,28 +7117,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R37" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S37" t="n">
-        <v>1674.827124689058</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T37" t="n">
-        <v>1453.060509258584</v>
+        <v>1734.57685067423</v>
       </c>
       <c r="U37" t="n">
-        <v>1163.957642384228</v>
+        <v>1445.473983799873</v>
       </c>
       <c r="V37" t="n">
-        <v>1163.957642384228</v>
+        <v>1190.789495593986</v>
       </c>
       <c r="W37" t="n">
-        <v>874.540472347267</v>
+        <v>901.3723255570255</v>
       </c>
       <c r="X37" t="n">
-        <v>646.5509214492497</v>
+        <v>673.3827746590082</v>
       </c>
       <c r="Y37" t="n">
-        <v>646.5509214492497</v>
+        <v>673.3827746590082</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C38" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D38" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E38" t="n">
         <v>1261.199888544769</v>
       </c>
       <c r="F38" t="n">
-        <v>850.2139837551617</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G38" t="n">
-        <v>435.1415336001583</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H38" t="n">
-        <v>137.5579332089255</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I38" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J38" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K38" t="n">
-        <v>785.6651881176194</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L38" t="n">
-        <v>1236.699401366028</v>
+        <v>1237.706702364128</v>
       </c>
       <c r="M38" t="n">
-        <v>2215.249704195857</v>
+        <v>2216.257005193957</v>
       </c>
       <c r="N38" t="n">
-        <v>3195.001976422504</v>
+        <v>3196.009277420604</v>
       </c>
       <c r="O38" t="n">
-        <v>3757.39320666029</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P38" t="n">
-        <v>4470.748294107236</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q38" t="n">
-        <v>4719.034655862918</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R38" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S38" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T38" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U38" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V38" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W38" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X38" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y38" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="39">
@@ -7227,13 +7227,13 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>970.5927724973196</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C39" t="n">
-        <v>796.1397432161926</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D39" t="n">
-        <v>647.2053335549414</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E39" t="n">
         <v>487.9678785494859</v>
@@ -7242,13 +7242,13 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G39" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H39" t="n">
         <v>114.5683260468565</v>
       </c>
       <c r="I39" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J39" t="n">
         <v>189.2383039390118</v>
@@ -7306,28 +7306,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>243.4741280307875</v>
+        <v>560.358900722199</v>
       </c>
       <c r="C40" t="n">
-        <v>243.4741280307875</v>
+        <v>391.4227177942921</v>
       </c>
       <c r="D40" t="n">
-        <v>243.4741280307875</v>
+        <v>389.6913148129298</v>
       </c>
       <c r="E40" t="n">
-        <v>95.56103444839441</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="F40" t="n">
-        <v>95.56103444839441</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="G40" t="n">
-        <v>95.56103444839441</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H40" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I40" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J40" t="n">
         <v>140.68366689533</v>
@@ -7354,28 +7354,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R40" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S40" t="n">
-        <v>1708.083284306722</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T40" t="n">
-        <v>1486.316668876249</v>
+        <v>1734.57685067423</v>
       </c>
       <c r="U40" t="n">
-        <v>1197.213802001892</v>
+        <v>1445.473983799873</v>
       </c>
       <c r="V40" t="n">
-        <v>942.5293137960052</v>
+        <v>1190.789495593986</v>
       </c>
       <c r="W40" t="n">
-        <v>653.1121437590446</v>
+        <v>1190.789495593986</v>
       </c>
       <c r="X40" t="n">
-        <v>425.1225928610272</v>
+        <v>962.7999446959689</v>
       </c>
       <c r="Y40" t="n">
-        <v>425.1225928610272</v>
+        <v>742.0073655524387</v>
       </c>
     </row>
     <row r="41">
@@ -7397,7 +7397,7 @@
         <v>1261.199888544769</v>
       </c>
       <c r="F41" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551617</v>
       </c>
       <c r="G41" t="n">
         <v>435.1415336001585</v>
@@ -7406,55 +7406,55 @@
         <v>137.5579332089257</v>
       </c>
       <c r="I41" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J41" t="n">
-        <v>289.6715157207246</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K41" t="n">
-        <v>944.3948478560242</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L41" t="n">
-        <v>1395.429061104433</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M41" t="n">
-        <v>2373.979363934262</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N41" t="n">
-        <v>2920.758180993044</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O41" t="n">
-        <v>3800.722831322499</v>
+        <v>3517.878731871643</v>
       </c>
       <c r="P41" t="n">
-        <v>4195.497197679677</v>
+        <v>4231.233819318589</v>
       </c>
       <c r="Q41" t="n">
-        <v>4653.975400188665</v>
+        <v>4689.712021827577</v>
       </c>
       <c r="R41" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S41" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T41" t="n">
         <v>4461.783306331037</v>
       </c>
       <c r="U41" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V41" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W41" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X41" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y41" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="42">
@@ -7464,28 +7464,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973196</v>
       </c>
       <c r="C42" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161926</v>
       </c>
       <c r="D42" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549414</v>
       </c>
       <c r="E42" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F42" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G42" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H42" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I42" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J42" t="n">
         <v>189.2383039390118</v>
@@ -7494,7 +7494,7 @@
         <v>427.5025029193589</v>
       </c>
       <c r="L42" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M42" t="n">
         <v>1241.47698845434</v>
@@ -7521,7 +7521,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U42" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V42" t="n">
         <v>1808.657265216076</v>
@@ -7530,10 +7530,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X42" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y42" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>243.4741280307875</v>
+        <v>3084.972127388693</v>
       </c>
       <c r="C43" t="n">
-        <v>243.4741280307875</v>
+        <v>3084.972127388693</v>
       </c>
       <c r="D43" t="n">
-        <v>243.4741280307875</v>
+        <v>3084.972127388693</v>
       </c>
       <c r="E43" t="n">
-        <v>95.56103444839441</v>
+        <v>3084.972127388693</v>
       </c>
       <c r="F43" t="n">
-        <v>95.56103444839441</v>
+        <v>3084.972127388693</v>
       </c>
       <c r="G43" t="n">
-        <v>95.56103444839441</v>
+        <v>2917.269290763412</v>
       </c>
       <c r="H43" t="n">
-        <v>95.56103444839441</v>
+        <v>2917.269290763412</v>
       </c>
       <c r="I43" t="n">
-        <v>95.56103444839441</v>
+        <v>2917.269290763412</v>
       </c>
       <c r="J43" t="n">
-        <v>140.68366689533</v>
+        <v>2962.391923210348</v>
       </c>
       <c r="K43" t="n">
-        <v>344.6708498442064</v>
+        <v>3166.379106159224</v>
       </c>
       <c r="L43" t="n">
-        <v>661.2306482927024</v>
+        <v>3482.93890460772</v>
       </c>
       <c r="M43" t="n">
-        <v>1005.387693892251</v>
+        <v>3827.095950207269</v>
       </c>
       <c r="N43" t="n">
-        <v>1346.796070598116</v>
+        <v>4168.504326913134</v>
       </c>
       <c r="O43" t="n">
-        <v>1646.12566951853</v>
+        <v>4467.833925833547</v>
       </c>
       <c r="P43" t="n">
-        <v>1878.733169952189</v>
+        <v>4700.441426267206</v>
       </c>
       <c r="Q43" t="n">
-        <v>1956.343466104704</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="R43" t="n">
-        <v>1866.513008862232</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S43" t="n">
-        <v>1674.827124689058</v>
+        <v>4586.365838246547</v>
       </c>
       <c r="T43" t="n">
-        <v>1453.060509258584</v>
+        <v>4364.599222816073</v>
       </c>
       <c r="U43" t="n">
-        <v>1163.957642384228</v>
+        <v>4075.496355941717</v>
       </c>
       <c r="V43" t="n">
-        <v>935.3323420415179</v>
+        <v>3820.81186773583</v>
       </c>
       <c r="W43" t="n">
-        <v>645.9151720045573</v>
+        <v>3531.394697698869</v>
       </c>
       <c r="X43" t="n">
-        <v>645.9151720045573</v>
+        <v>3303.405146800852</v>
       </c>
       <c r="Y43" t="n">
-        <v>425.1225928610272</v>
+        <v>3084.972127388693</v>
       </c>
     </row>
     <row r="44">
@@ -7643,34 +7643,34 @@
         <v>137.5579332089257</v>
       </c>
       <c r="I44" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J44" t="n">
         <v>451.8458144277729</v>
       </c>
       <c r="K44" t="n">
-        <v>785.6651881176194</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L44" t="n">
-        <v>1236.699401366028</v>
+        <v>1971.087962216427</v>
       </c>
       <c r="M44" t="n">
-        <v>2215.249704195857</v>
+        <v>2504.619866888352</v>
       </c>
       <c r="N44" t="n">
-        <v>2762.028521254639</v>
+        <v>3051.398683947134</v>
       </c>
       <c r="O44" t="n">
-        <v>3547.201365906984</v>
+        <v>3554.371154826471</v>
       </c>
       <c r="P44" t="n">
-        <v>4260.55645335393</v>
+        <v>4267.726242273417</v>
       </c>
       <c r="Q44" t="n">
-        <v>4719.034655862918</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R44" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S44" t="n">
         <v>4667.761053946815</v>
@@ -7682,16 +7682,16 @@
         <v>4208.252829604874</v>
       </c>
       <c r="V44" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W44" t="n">
         <v>3524.421286991189</v>
       </c>
       <c r="X44" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y44" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="45">
@@ -7701,28 +7701,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C45" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D45" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E45" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F45" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G45" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H45" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I45" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J45" t="n">
         <v>189.2383039390118</v>
@@ -7758,7 +7758,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U45" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V45" t="n">
         <v>1808.657265216076</v>
@@ -7767,10 +7767,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X45" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y45" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="46">
@@ -7780,28 +7780,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>623.6704680167705</v>
+        <v>402.8778888732404</v>
       </c>
       <c r="C46" t="n">
-        <v>454.7342850888637</v>
+        <v>360.5895482553301</v>
       </c>
       <c r="D46" t="n">
-        <v>304.6176456765279</v>
+        <v>360.5895482553301</v>
       </c>
       <c r="E46" t="n">
-        <v>304.6176456765279</v>
+        <v>360.5895482553301</v>
       </c>
       <c r="F46" t="n">
-        <v>304.6176456765279</v>
+        <v>360.5895482553301</v>
       </c>
       <c r="G46" t="n">
-        <v>136.9148090512469</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="H46" t="n">
-        <v>136.9148090512469</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I46" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J46" t="n">
         <v>140.68366689533</v>
@@ -7849,7 +7849,7 @@
         <v>805.3189328470103</v>
       </c>
       <c r="Y46" t="n">
-        <v>805.3189328470103</v>
+        <v>584.5263537034801</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8073,10 +8073,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>275.0442842992665</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747075</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8216,13 +8216,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>324.1454125711647</v>
+        <v>103.1426522086581</v>
       </c>
       <c r="L5" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M5" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
         <v>437.3469244119842</v>
@@ -8231,7 +8231,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P5" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>212.3149906599047</v>
@@ -8301,16 +8301,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>465.7050637499999</v>
+        <v>48.10560617263471</v>
       </c>
       <c r="N6" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>199.02694854156</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8450,31 +8450,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>75.00812759551707</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8529,31 +8529,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>6.233205181928369</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>224.0472258793176</v>
       </c>
       <c r="L9" t="n">
-        <v>329.6451212993294</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>473.6238973478236</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>45.52166981132082</v>
+        <v>17.26494649393206</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8687,10 +8687,10 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>34.13957882093925</v>
+        <v>67.5366377670415</v>
       </c>
       <c r="K11" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
         <v>417.6612145504504</v>
@@ -8699,7 +8699,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
@@ -8708,10 +8708,10 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8924,16 +8924,16 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>169.0966151720738</v>
+        <v>132.9990175570123</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -8942,13 +8942,13 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
-        <v>226.0494095077353</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9161,25 +9161,25 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N17" t="n">
-        <v>116.5656919961577</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O17" t="n">
-        <v>380.8001812627454</v>
+        <v>133.2530576400246</v>
       </c>
       <c r="P17" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -9407,22 +9407,22 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
-        <v>251.7982062376307</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O20" t="n">
-        <v>380.8001812627454</v>
+        <v>133.2530576400246</v>
       </c>
       <c r="P20" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9635,22 +9635,22 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M23" t="n">
-        <v>80.35488666587423</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O23" t="n">
-        <v>380.8001812627454</v>
+        <v>133.2530576400246</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -9659,7 +9659,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9878,25 +9878,25 @@
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>400.5976869789374</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>133.2530576400264</v>
       </c>
       <c r="P26" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10109,22 +10109,22 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>48.50256772349326</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O29" t="n">
-        <v>380.8001812627454</v>
+        <v>133.2530576400255</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
@@ -10133,7 +10133,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10346,31 +10346,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N32" t="n">
-        <v>176.2173930448423</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O32" t="n">
-        <v>380.8001812627454</v>
+        <v>133.2530576400246</v>
       </c>
       <c r="P32" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10586,28 +10586,28 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>308.4529749292111</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P35" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>189.7998007892635</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10820,13 +10820,13 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>170.1140909277306</v>
       </c>
       <c r="M38" t="n">
         <v>449.5135334928325</v>
@@ -10835,10 +10835,10 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O38" t="n">
-        <v>60.01894884691887</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P38" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
@@ -11057,7 +11057,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>5.284192235661408</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
@@ -11066,7 +11066,7 @@
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
@@ -11075,13 +11075,13 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>29.61882225792094</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11297,25 +11297,25 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>285.0508825989983</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599047</v>
+        <v>205.0727796301213</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -23416,16 +23416,16 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23461,28 +23461,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>182.1679443159936</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>68.5349395419189</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23650,16 +23650,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>78.01732286362498</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23668,7 +23668,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
         <v>96.35242040983809</v>
@@ -23698,19 +23698,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
-        <v>219.5489492761692</v>
+        <v>22.04937489577983</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23887,25 +23887,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>105.1113439070264</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>96.35242040983809</v>
@@ -23938,25 +23938,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>120.9060736512578</v>
       </c>
       <c r="T19" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24124,16 +24124,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>105.0742887270138</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24184,13 +24184,13 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>147.9860810679669</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24361,19 +24361,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>21.03811973676667</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>166.0258082590282</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24418,16 +24418,16 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>16.14213605696625</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24604,19 +24604,19 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>96.35242040983809</v>
@@ -24649,19 +24649,19 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
-        <v>62.89176707803097</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>213.8754331270851</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24835,19 +24835,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>19.32552431454025</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>166.0258082590282</v>
@@ -24883,13 +24883,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>121.4225463903062</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25072,16 +25072,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>97.25251934931823</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25090,10 +25090,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25135,10 +25135,10 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>186.3642471972064</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25312,25 +25312,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>147.7575898962386</v>
       </c>
       <c r="D37" t="n">
-        <v>82.84207689159084</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,10 +25357,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25369,7 +25369,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25549,10 +25549,10 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>146.9013840666636</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -25564,7 +25564,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H40" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>96.35242040983809</v>
@@ -25594,10 +25594,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
-        <v>32.92359802148755</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25609,13 +25609,13 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25783,7 +25783,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -25792,13 +25792,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>144.7550149143208</v>
@@ -25831,7 +25831,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25843,16 +25843,16 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>25.7985959845453</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>2.335964134057434</v>
       </c>
     </row>
     <row r="44">
@@ -26023,10 +26023,10 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>125.3813638868966</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26041,7 +26041,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I46" t="n">
-        <v>55.41218355301416</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26089,7 +26089,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>912431.0903933051</v>
+        <v>890040.1845807829</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>890040.1845807829</v>
+        <v>850361.0147885345</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>841786.5885415314</v>
+        <v>841786.5885415315</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>841786.5885415314</v>
+        <v>841786.5885415315</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>841786.5885415315</v>
+        <v>841786.5885415314</v>
       </c>
     </row>
     <row r="9">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>841786.5885415314</v>
+        <v>841786.5885415315</v>
       </c>
     </row>
     <row r="12">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>841786.5885415314</v>
+        <v>841786.5885415315</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>841786.5885415314</v>
+        <v>841786.5885415315</v>
       </c>
     </row>
     <row r="16">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>595255.2831516047</v>
+        <v>595255.2831516048</v>
       </c>
       <c r="C2" t="n">
-        <v>595255.2831516047</v>
+        <v>595255.2831516055</v>
       </c>
       <c r="D2" t="n">
         <v>595255.2831516055</v>
       </c>
       <c r="E2" t="n">
+        <v>575768.5909861254</v>
+      </c>
+      <c r="F2" t="n">
+        <v>575768.5909861259</v>
+      </c>
+      <c r="G2" t="n">
         <v>575768.5909861256</v>
       </c>
-      <c r="F2" t="n">
-        <v>575768.590986126</v>
-      </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
+        <v>575768.5909861256</v>
+      </c>
+      <c r="I2" t="n">
+        <v>575768.5909861256</v>
+      </c>
+      <c r="J2" t="n">
+        <v>575768.5909861256</v>
+      </c>
+      <c r="K2" t="n">
+        <v>575768.5909861255</v>
+      </c>
+      <c r="L2" t="n">
         <v>575768.5909861254</v>
       </c>
-      <c r="H2" t="n">
+      <c r="M2" t="n">
+        <v>575768.5909861259</v>
+      </c>
+      <c r="N2" t="n">
+        <v>575768.5909861258</v>
+      </c>
+      <c r="O2" t="n">
         <v>575768.5909861255</v>
       </c>
-      <c r="I2" t="n">
-        <v>575768.5909861259</v>
-      </c>
-      <c r="J2" t="n">
-        <v>575768.5909861259</v>
-      </c>
-      <c r="K2" t="n">
+      <c r="P2" t="n">
         <v>575768.5909861258</v>
-      </c>
-      <c r="L2" t="n">
-        <v>575768.5909861259</v>
-      </c>
-      <c r="M2" t="n">
-        <v>575768.5909861256</v>
-      </c>
-      <c r="N2" t="n">
-        <v>575768.5909861254</v>
-      </c>
-      <c r="O2" t="n">
-        <v>575768.5909861258</v>
-      </c>
-      <c r="P2" t="n">
-        <v>575768.5909861256</v>
       </c>
     </row>
     <row r="3">
@@ -26366,13 +26366,13 @@
         <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>196446.3877966352</v>
       </c>
       <c r="D3" t="n">
-        <v>184756.2785481116</v>
+        <v>315238.2384513059</v>
       </c>
       <c r="E3" t="n">
-        <v>554057.3276165043</v>
+        <v>258331.9582431704</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>207826.5542404878</v>
+        <v>209922.4154630333</v>
       </c>
       <c r="C4" t="n">
-        <v>207826.5542404878</v>
+        <v>176266.9759012793</v>
       </c>
       <c r="D4" t="n">
-        <v>174833.3509411825</v>
+        <v>121617.1617317167</v>
       </c>
       <c r="E4" t="n">
-        <v>27740.54210219667</v>
+        <v>28561.83935289573</v>
       </c>
       <c r="F4" t="n">
-        <v>27740.54210219667</v>
+        <v>28561.83935289571</v>
       </c>
       <c r="G4" t="n">
-        <v>27740.54210219668</v>
+        <v>28561.83935289574</v>
       </c>
       <c r="H4" t="n">
-        <v>27740.54210219667</v>
+        <v>28561.83935289574</v>
       </c>
       <c r="I4" t="n">
-        <v>27740.54210219666</v>
+        <v>28561.83935289574</v>
       </c>
       <c r="J4" t="n">
-        <v>27740.54210219667</v>
+        <v>28561.83935289577</v>
       </c>
       <c r="K4" t="n">
-        <v>27740.54210219668</v>
+        <v>28561.83935289576</v>
       </c>
       <c r="L4" t="n">
-        <v>27740.54210219666</v>
+        <v>28561.83935289574</v>
       </c>
       <c r="M4" t="n">
-        <v>27740.54210219667</v>
+        <v>28561.83935289574</v>
       </c>
       <c r="N4" t="n">
-        <v>27740.54210219668</v>
+        <v>28561.83935289576</v>
       </c>
       <c r="O4" t="n">
-        <v>27740.54210219666</v>
+        <v>28561.83935289575</v>
       </c>
       <c r="P4" t="n">
-        <v>27740.54210219668</v>
+        <v>28561.83935289577</v>
       </c>
     </row>
     <row r="5">
@@ -26470,16 +26470,16 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340946</v>
+        <v>87562.0451708468</v>
       </c>
       <c r="D5" t="n">
-        <v>87562.0451708468</v>
+        <v>95586.42776879414</v>
       </c>
       <c r="E5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="F5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="G5" t="n">
         <v>96383.51825371364</v>
@@ -26491,7 +26491,7 @@
         <v>96383.51825371364</v>
       </c>
       <c r="J5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371367</v>
       </c>
       <c r="K5" t="n">
         <v>96383.51825371366</v>
@@ -26503,13 +26503,13 @@
         <v>96383.51825371364</v>
       </c>
       <c r="N5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="O5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="P5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-285398.228366837</v>
+        <v>-287494.0895893824</v>
       </c>
       <c r="C6" t="n">
-        <v>304569.6508477075</v>
+        <v>134979.8742828442</v>
       </c>
       <c r="D6" t="n">
-        <v>148103.6084914646</v>
+        <v>62813.45519978883</v>
       </c>
       <c r="E6" t="n">
-        <v>-102412.796986289</v>
+        <v>192491.2751363456</v>
       </c>
       <c r="F6" t="n">
-        <v>451644.5306302157</v>
+        <v>450823.2333795165</v>
       </c>
       <c r="G6" t="n">
-        <v>451644.5306302151</v>
+        <v>450823.2333795163</v>
       </c>
       <c r="H6" t="n">
-        <v>451644.5306302152</v>
+        <v>450823.2333795163</v>
       </c>
       <c r="I6" t="n">
-        <v>451644.5306302155</v>
+        <v>450823.2333795163</v>
       </c>
       <c r="J6" t="n">
-        <v>275221.3114376226</v>
+        <v>274400.0141869232</v>
       </c>
       <c r="K6" t="n">
-        <v>451644.5306302154</v>
+        <v>450823.2333795161</v>
       </c>
       <c r="L6" t="n">
-        <v>451644.5306302155</v>
+        <v>450823.2333795161</v>
       </c>
       <c r="M6" t="n">
-        <v>322002.2157912706</v>
+        <v>321180.9185405718</v>
       </c>
       <c r="N6" t="n">
-        <v>451644.5306302151</v>
+        <v>450823.2333795163</v>
       </c>
       <c r="O6" t="n">
-        <v>451644.5306302155</v>
+        <v>450823.2333795161</v>
       </c>
       <c r="P6" t="n">
-        <v>451644.5306302153</v>
+        <v>450823.2333795163</v>
       </c>
     </row>
   </sheetData>
@@ -26738,13 +26738,13 @@
         <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>593.4761003380651</v>
       </c>
       <c r="D3" t="n">
-        <v>593.4761003380651</v>
+        <v>961.5670451980345</v>
       </c>
       <c r="E3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="F3" t="n">
         <v>1089.776700593298</v>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
         <v>1194.51293060493</v>
@@ -26960,13 +26960,13 @@
         <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>215.7324361209784</v>
       </c>
       <c r="D3" t="n">
-        <v>215.7324361209784</v>
+        <v>368.0909448599695</v>
       </c>
       <c r="E3" t="n">
-        <v>496.3006002552332</v>
+        <v>128.209655395264</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>520.2256578503744</v>
+        <v>520.2256578503745</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545559</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503744</v>
+        <v>520.2256578503745</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503744</v>
+        <v>520.2256578503745</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,7 +27379,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27388,16 +27388,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>117.5563987996196</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,13 +27427,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27442,7 +27442,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>249.0634022363268</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27543,7 +27543,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>73.01590346521135</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27552,7 +27552,7 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
         <v>134.9656217923382</v>
@@ -27585,7 +27585,7 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
@@ -27597,7 +27597,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>24.62049154535646</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27616,25 +27616,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>74.39454484169437</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
+        <v>107.1225437442687</v>
+      </c>
+      <c r="G5" t="n">
         <v>400</v>
       </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,19 +27664,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27771,31 +27771,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>43.6403602933822</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>152.7120966692326</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>123.266557879417</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,19 +27816,19 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>129.1731816677913</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>201.535735740063</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27840,7 +27840,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27853,7 +27853,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -27865,13 +27865,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>299.8862654257798</v>
       </c>
       <c r="I8" t="n">
-        <v>31.28688785137992</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,13 +27901,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>154.6528871281402</v>
+        <v>19.55180148968985</v>
       </c>
       <c r="T8" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.1547862223006</v>
+        <v>251.0364052149085</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -28008,28 +28008,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>97.44875461537265</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.9207765545704</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>146.8105729959039</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>103.3051669679944</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,16 +28056,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>129.1731816677913</v>
+        <v>99.32764374521085</v>
       </c>
       <c r="S10" t="n">
-        <v>205.3658819001186</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>223.3729047207587</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.260654658097</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28074,7 +28074,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>219.6288921780952</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340046</v>
+        <v>2.38583356919825</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141</v>
+        <v>24.43391804055158</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>91.97984867651562</v>
       </c>
       <c r="J5" t="n">
-        <v>128.8865178727436</v>
+        <v>202.4946418937401</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>303.4869768779021</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>376.5024309712531</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>418.9314987074825</v>
       </c>
       <c r="N5" t="n">
-        <v>270.9617944338304</v>
+        <v>425.710248335967</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>401.9861157822519</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954667</v>
+        <v>343.0858495426701</v>
       </c>
       <c r="Q5" t="n">
-        <v>163.9882055044137</v>
+        <v>257.6431848457577</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>54.36718245810517</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>10.44398644916534</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1908666855358599</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>1.276533498840366</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>12.32862615985301</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>43.95082441182841</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>120.6044214847383</v>
       </c>
       <c r="K6" t="n">
-        <v>131.2017781649102</v>
+        <v>206.1321659070429</v>
       </c>
       <c r="L6" t="n">
-        <v>176.4169820478007</v>
+        <v>277.1701353512822</v>
       </c>
       <c r="M6" t="n">
-        <v>205.8702969983122</v>
+        <v>323.4444746842454</v>
       </c>
       <c r="N6" t="n">
-        <v>211.31907117367</v>
+        <v>332.0050874900653</v>
       </c>
       <c r="O6" t="n">
-        <v>193.3156655923047</v>
+        <v>303.7197925947077</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>243.7619099671574</v>
       </c>
       <c r="Q6" t="n">
-        <v>103.7155811639065</v>
+        <v>162.9483813607457</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>79.25705355080804</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131473</v>
+        <v>23.71104985784626</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>5.145325813308317</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.08398246702897151</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>1.070202803888314</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>9.515075838207016</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492005</v>
+        <v>32.18391704784131</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>75.66333823490379</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>124.3381075790241</v>
       </c>
       <c r="L7" t="n">
-        <v>101.2724571246924</v>
+        <v>159.1099695889954</v>
       </c>
       <c r="M7" t="n">
-        <v>106.777606591725</v>
+        <v>167.7591540676927</v>
       </c>
       <c r="N7" t="n">
-        <v>104.2386737666594</v>
+        <v>163.7702163441091</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>151.2683017714137</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>129.436164572092</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>89.61489115104783</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>48.12020970937817</v>
       </c>
       <c r="S7" t="n">
-        <v>11.87105908695336</v>
+        <v>18.65071613685361</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>4.572684707522795</v>
       </c>
       <c r="U7" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.0583746983939081</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>2.38583356919825</v>
+        <v>3.865596161600136</v>
       </c>
       <c r="H8" t="n">
-        <v>24.43391804055158</v>
+        <v>39.5885366899874</v>
       </c>
       <c r="I8" t="n">
-        <v>91.97984867651562</v>
+        <v>149.0283960200894</v>
       </c>
       <c r="J8" t="n">
-        <v>202.4946418937401</v>
+        <v>328.0876422206098</v>
       </c>
       <c r="K8" t="n">
-        <v>303.4869768779021</v>
+        <v>491.7183277411437</v>
       </c>
       <c r="L8" t="n">
-        <v>376.5024309712531</v>
+        <v>610.020066271714</v>
       </c>
       <c r="M8" t="n">
-        <v>418.9314987074825</v>
+        <v>678.7648620105704</v>
       </c>
       <c r="N8" t="n">
-        <v>425.710248335967</v>
+        <v>689.7479871047168</v>
       </c>
       <c r="O8" t="n">
-        <v>401.9861157822519</v>
+        <v>651.3094652728054</v>
       </c>
       <c r="P8" t="n">
-        <v>343.0858495426701</v>
+        <v>555.877560033302</v>
       </c>
       <c r="Q8" t="n">
-        <v>257.6431848457577</v>
+        <v>417.440897495997</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>242.8222548861147</v>
       </c>
       <c r="S8" t="n">
-        <v>54.36718245810517</v>
+        <v>88.08727253246319</v>
       </c>
       <c r="T8" t="n">
-        <v>10.44398644916534</v>
+        <v>16.9216471974046</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1908666855358599</v>
+        <v>0.3092476929280108</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.276533498840366</v>
+        <v>2.068276285897659</v>
       </c>
       <c r="H9" t="n">
-        <v>12.32862615985301</v>
+        <v>19.97519465590634</v>
       </c>
       <c r="I9" t="n">
-        <v>43.95082441182841</v>
+        <v>71.21038966796766</v>
       </c>
       <c r="J9" t="n">
-        <v>120.6044214847383</v>
+        <v>195.4067520812346</v>
       </c>
       <c r="K9" t="n">
-        <v>206.1321659070429</v>
+        <v>333.9812632363777</v>
       </c>
       <c r="L9" t="n">
-        <v>277.1701353512822</v>
+        <v>449.0790242691387</v>
       </c>
       <c r="M9" t="n">
-        <v>323.4444746842454</v>
+        <v>524.0540396329287</v>
       </c>
       <c r="N9" t="n">
-        <v>332.0050874900653</v>
+        <v>537.9241906905495</v>
       </c>
       <c r="O9" t="n">
-        <v>303.7197925947077</v>
+        <v>492.0955424609224</v>
       </c>
       <c r="P9" t="n">
-        <v>243.7619099671574</v>
+        <v>394.9500567342644</v>
       </c>
       <c r="Q9" t="n">
-        <v>162.9483813607457</v>
+        <v>264.0136536173924</v>
       </c>
       <c r="R9" t="n">
-        <v>79.25705355080804</v>
+        <v>128.4145574700319</v>
       </c>
       <c r="S9" t="n">
-        <v>23.71104985784626</v>
+        <v>38.41732487182711</v>
       </c>
       <c r="T9" t="n">
-        <v>5.145325813308317</v>
+        <v>8.33660485412258</v>
       </c>
       <c r="U9" t="n">
-        <v>0.08398246702897151</v>
+        <v>0.1360708082827408</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.070202803888314</v>
+        <v>1.733973360193177</v>
       </c>
       <c r="H10" t="n">
-        <v>9.515075838207016</v>
+        <v>15.41659951153571</v>
       </c>
       <c r="I10" t="n">
-        <v>32.18391704784131</v>
+        <v>52.14530795926392</v>
       </c>
       <c r="J10" t="n">
-        <v>75.66333823490379</v>
+        <v>122.5919165656576</v>
       </c>
       <c r="K10" t="n">
-        <v>124.3381075790241</v>
+        <v>201.45617766608</v>
       </c>
       <c r="L10" t="n">
-        <v>159.1099695889954</v>
+        <v>257.7945484781747</v>
       </c>
       <c r="M10" t="n">
-        <v>167.7591540676927</v>
+        <v>271.8082059073722</v>
       </c>
       <c r="N10" t="n">
-        <v>163.7702163441091</v>
+        <v>265.345214292107</v>
       </c>
       <c r="O10" t="n">
-        <v>151.2683017714137</v>
+        <v>245.0892527662139</v>
       </c>
       <c r="P10" t="n">
-        <v>129.436164572092</v>
+        <v>209.7161962182729</v>
       </c>
       <c r="Q10" t="n">
-        <v>89.61489115104783</v>
+        <v>145.1966238249032</v>
       </c>
       <c r="R10" t="n">
-        <v>48.12020970937817</v>
+        <v>77.96574763195864</v>
       </c>
       <c r="S10" t="n">
-        <v>18.65071613685361</v>
+        <v>30.21842664991199</v>
       </c>
       <c r="T10" t="n">
-        <v>4.572684707522795</v>
+        <v>7.408795266279935</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0583746983939081</v>
+        <v>0.09458036510144611</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H11" t="n">
         <v>44.86703772844668</v>
@@ -31759,40 +31759,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J11" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K11" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T11" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,46 +31829,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H12" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K12" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L12" t="n">
         <v>508.9565619138797</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O12" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q12" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R12" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31911,43 +31911,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H13" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K13" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L13" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M13" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P13" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q13" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U13" t="n">
         <v>0.1071911508780295</v>
@@ -32078,7 +32078,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K15" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L15" t="n">
         <v>508.9565619138796</v>
@@ -32096,7 +32096,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R15" t="n">
         <v>145.5365940905541</v>
@@ -32315,7 +32315,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K18" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L18" t="n">
         <v>508.9565619138796</v>
@@ -32552,7 +32552,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K21" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
         <v>508.9565619138796</v>
@@ -32570,7 +32570,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
@@ -32789,7 +32789,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K24" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L24" t="n">
         <v>508.9565619138796</v>
@@ -33026,10 +33026,10 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K27" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L27" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M27" t="n">
         <v>593.9283018233475</v>
@@ -33263,7 +33263,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K30" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L30" t="n">
         <v>508.9565619138796</v>
@@ -33500,7 +33500,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K33" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L33" t="n">
         <v>508.9565619138796</v>
@@ -33515,7 +33515,7 @@
         <v>557.708647897025</v>
       </c>
       <c r="P33" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q33" t="n">
         <v>299.2156706987487</v>
@@ -33992,7 +33992,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
@@ -34214,7 +34214,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L42" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M42" t="n">
         <v>593.9283018233475</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34793,10 +34793,10 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>296.2227415328939</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>190.5453525391276</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>186.5397780415797</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>558.3972305517163</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>188.5852654802098</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>633.6441091513602</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>552.6880856233105</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>111.8528537874005</v>
       </c>
       <c r="Q5" t="n">
-        <v>153.9975062898689</v>
+        <v>247.6524856312129</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>119.8578301584805</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>332.7559639452625</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713857</v>
+        <v>509.4561008748672</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262938</v>
+        <v>229.4160469348618</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>200.663375406732</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>554.9858674269929</v>
       </c>
       <c r="P6" t="n">
-        <v>220.2054057751875</v>
+        <v>428.2502711927643</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>233.0438950105733</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,25 +35094,25 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>102.0686157531412</v>
       </c>
       <c r="L7" t="n">
-        <v>128.8624823850085</v>
+        <v>186.6999948493115</v>
       </c>
       <c r="M7" t="n">
-        <v>146.3614835535656</v>
+        <v>207.3430310295333</v>
       </c>
       <c r="N7" t="n">
-        <v>148.370846145888</v>
+        <v>207.9023887233377</v>
       </c>
       <c r="O7" t="n">
-        <v>120.8664146557981</v>
+        <v>175.8534296854534</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>126.7147238369855</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>3.452847899353443</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.5453525391276</v>
+        <v>147.0417376939236</v>
       </c>
       <c r="K8" t="n">
-        <v>407.5425384040863</v>
+        <v>271.6284766961631</v>
       </c>
       <c r="L8" t="n">
-        <v>215.7441435967829</v>
+        <v>374.2536513017267</v>
       </c>
       <c r="M8" t="n">
-        <v>638.0987989730422</v>
+        <v>448.4186287832977</v>
       </c>
       <c r="N8" t="n">
-        <v>196.2971847393761</v>
+        <v>460.3349235081259</v>
       </c>
       <c r="O8" t="n">
-        <v>552.6880856233105</v>
+        <v>421.2112538511186</v>
       </c>
       <c r="P8" t="n">
-        <v>433.6515619588832</v>
+        <v>324.6445642780324</v>
       </c>
       <c r="Q8" t="n">
-        <v>35.33749497130819</v>
+        <v>195.1352076215475</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>27.23671707198261</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>68.56912541456788</v>
       </c>
       <c r="K9" t="n">
-        <v>68.29072693268387</v>
+        <v>420.1870501413364</v>
       </c>
       <c r="L9" t="n">
-        <v>468.2608768707375</v>
+        <v>310.5246444892645</v>
       </c>
       <c r="M9" t="n">
-        <v>181.3104407622271</v>
+        <v>381.9200057109104</v>
       </c>
       <c r="N9" t="n">
-        <v>674.2872727545556</v>
+        <v>406.5824786072162</v>
       </c>
       <c r="O9" t="n">
-        <v>554.9858674269929</v>
+        <v>349.499298016478</v>
       </c>
       <c r="P9" t="n">
-        <v>428.2502711927643</v>
+        <v>260.9756493199342</v>
       </c>
       <c r="Q9" t="n">
-        <v>233.0438950105733</v>
+        <v>334.10916726722</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>29.23273644898482</v>
       </c>
       <c r="K10" t="n">
-        <v>102.0686157531412</v>
+        <v>179.1866858401971</v>
       </c>
       <c r="L10" t="n">
-        <v>186.6999948493115</v>
+        <v>285.3845737384909</v>
       </c>
       <c r="M10" t="n">
-        <v>207.3430310295333</v>
+        <v>311.3920828692128</v>
       </c>
       <c r="N10" t="n">
-        <v>207.9023887233377</v>
+        <v>309.4773866713356</v>
       </c>
       <c r="O10" t="n">
-        <v>175.8534296854534</v>
+        <v>269.6743806802535</v>
       </c>
       <c r="P10" t="n">
-        <v>126.7147238369855</v>
+        <v>206.9947554831664</v>
       </c>
       <c r="Q10" t="n">
-        <v>3.452847899353443</v>
+        <v>59.03458057320883</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>224.9265797896518</v>
+        <v>258.3236387357542</v>
       </c>
       <c r="K11" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L11" t="n">
-        <v>873.2513289427826</v>
+        <v>873.2513289427827</v>
       </c>
       <c r="M11" t="n">
-        <v>988.4346493230593</v>
+        <v>988.4346493230594</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248957</v>
       </c>
       <c r="O11" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q11" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152073</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,25 +35486,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K12" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340055</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P12" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q12" t="n">
         <v>159.2338966127272</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K13" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L13" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M13" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N13" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O13" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P13" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q13" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,16 +35644,16 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>359.8836161407863</v>
+        <v>323.7860185257249</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L14" t="n">
         <v>455.5901143923322</v>
       </c>
       <c r="M14" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N14" t="n">
         <v>552.3018354129115</v>
@@ -35662,13 +35662,13 @@
         <v>888.8531821509645</v>
       </c>
       <c r="P14" t="n">
-        <v>624.8113957271072</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q14" t="n">
         <v>463.1092954636242</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,7 +35726,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K15" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L15" t="n">
         <v>370.4021821340054</v>
@@ -35744,7 +35744,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35881,25 +35881,25 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K17" t="n">
         <v>337.1912865554005</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M17" t="n">
         <v>988.4346493230593</v>
       </c>
       <c r="N17" t="n">
-        <v>668.8675274090692</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O17" t="n">
-        <v>888.8531821509645</v>
+        <v>641.3060585282437</v>
       </c>
       <c r="P17" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q17" t="n">
         <v>250.7943048037195</v>
@@ -35963,7 +35963,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K18" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L18" t="n">
         <v>370.4021821340054</v>
@@ -36127,22 +36127,22 @@
         <v>873.2513289427826</v>
       </c>
       <c r="M20" t="n">
-        <v>790.7193220678574</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N20" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O20" t="n">
-        <v>888.8531821509645</v>
+        <v>641.3060585282437</v>
       </c>
       <c r="P20" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q20" t="n">
         <v>250.7943048037195</v>
       </c>
       <c r="R20" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36200,7 +36200,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K21" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
         <v>370.4021821340054</v>
@@ -36218,7 +36218,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36355,22 +36355,22 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K23" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L23" t="n">
         <v>873.2513289427826</v>
       </c>
       <c r="M23" t="n">
-        <v>619.276002496101</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N23" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O23" t="n">
-        <v>888.8531821509645</v>
+        <v>641.3060585282437</v>
       </c>
       <c r="P23" t="n">
         <v>398.7619862193719</v>
@@ -36379,7 +36379,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R23" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36437,7 +36437,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K24" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L24" t="n">
         <v>370.4021821340054</v>
@@ -36598,25 +36598,25 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L26" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M26" t="n">
-        <v>939.5188028091642</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N26" t="n">
         <v>989.6487598248956</v>
       </c>
       <c r="O26" t="n">
-        <v>508.0530008882191</v>
+        <v>641.3060585282456</v>
       </c>
       <c r="P26" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q26" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R26" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,10 +36674,10 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K27" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L27" t="n">
-        <v>370.4021821340055</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M27" t="n">
         <v>451.7942679013292</v>
@@ -36829,22 +36829,22 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K29" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L29" t="n">
-        <v>504.0926821158254</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M29" t="n">
         <v>988.4346493230593</v>
       </c>
       <c r="N29" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O29" t="n">
-        <v>888.8531821509645</v>
+        <v>641.3060585282446</v>
       </c>
       <c r="P29" t="n">
         <v>398.7619862193719</v>
@@ -36853,7 +36853,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R29" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,7 +36911,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K30" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L30" t="n">
         <v>370.4021821340054</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K32" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L32" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M32" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N32" t="n">
-        <v>728.5192284577538</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O32" t="n">
-        <v>888.8531821509645</v>
+        <v>641.3060585282437</v>
       </c>
       <c r="P32" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q32" t="n">
         <v>250.7943048037195</v>
       </c>
       <c r="R32" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,7 +37148,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K33" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L33" t="n">
         <v>370.4021821340054</v>
@@ -37163,7 +37163,7 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P33" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q33" t="n">
         <v>159.2338966127272</v>
@@ -37306,28 +37306,28 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K35" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L35" t="n">
         <v>873.2513289427826</v>
       </c>
       <c r="M35" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N35" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O35" t="n">
-        <v>816.5059758174302</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P35" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q35" t="n">
-        <v>250.7943048037195</v>
+        <v>440.5941055929829</v>
       </c>
       <c r="R35" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37540,13 +37540,13 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K38" t="n">
         <v>337.1912865554005</v>
       </c>
       <c r="L38" t="n">
-        <v>455.5901143923322</v>
+        <v>625.7042053200628</v>
       </c>
       <c r="M38" t="n">
         <v>988.4346493230593</v>
@@ -37555,10 +37555,10 @@
         <v>989.6487598248956</v>
       </c>
       <c r="O38" t="n">
-        <v>568.071949735138</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P38" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q38" t="n">
         <v>250.7943048037195</v>
@@ -37640,7 +37640,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37777,7 +37777,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>196.071193204374</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K41" t="n">
         <v>661.3366991265652</v>
@@ -37786,7 +37786,7 @@
         <v>455.5901143923322</v>
       </c>
       <c r="M41" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N41" t="n">
         <v>552.3018354129115</v>
@@ -37795,13 +37795,13 @@
         <v>888.8531821509645</v>
       </c>
       <c r="P41" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q41" t="n">
         <v>463.1092954636242</v>
       </c>
       <c r="R41" t="n">
-        <v>125.3296184152072</v>
+        <v>89.23202080014572</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37862,7 +37862,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L42" t="n">
-        <v>370.4021821340055</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M42" t="n">
         <v>451.7942679013292</v>
@@ -38017,25 +38017,25 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K44" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M44" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N44" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O44" t="n">
-        <v>793.1038834872174</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P44" t="n">
         <v>720.5606943908545</v>
       </c>
       <c r="Q44" t="n">
-        <v>463.1092954636242</v>
+        <v>455.8670844338408</v>
       </c>
       <c r="R44" t="n">
         <v>59.61319854222478</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_8_29.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_8_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2221008.473005264</v>
+        <v>2216702.756629192</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283186</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -664,16 +664,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>352.5823513672252</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
@@ -709,16 +709,16 @@
         <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>6.74548282293786</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -825,22 +825,22 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>17.46627909926806</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -876,13 +876,13 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>43.16288100277492</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -895,19 +895,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>60.46179076613115</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>13.784170020795</v>
@@ -943,13 +943,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>17.60449103399014</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -995,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1056,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1107,16 +1107,16 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>213.9154470216035</v>
       </c>
       <c r="W7" t="n">
-        <v>127.004412707233</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1132,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>61.32905684098937</v>
       </c>
       <c r="F8" t="n">
-        <v>227.0998406327044</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>412.9169039459368</v>
+        <v>12.9169039459368</v>
       </c>
       <c r="H8" t="n">
-        <v>315.0408840752156</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>118.4960408938903</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1186,22 +1186,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1296,7 +1296,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -1305,10 +1305,10 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.9207765545704</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>152.7120966692326</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1341,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>159.0938556120449</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1356,10 +1356,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>111.5266024655407</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1372,7 +1372,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1527,25 +1527,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>62.18842302760083</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>25.52471385612597</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1767,10 +1767,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>50.06209150957563</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -1779,13 +1779,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,13 +1815,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>172.0260335000785</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1909,7 +1909,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -2004,25 +2004,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>19.91555826189063</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2064,7 +2064,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>186.7624964458364</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2098,7 +2098,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2244,22 +2244,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2301,13 +2301,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>151.8518831495024</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2481,16 +2481,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
@@ -2529,13 +2529,13 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V25" t="n">
-        <v>137.3676443337303</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2611,7 +2611,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2712,19 +2712,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>35.6665036611733</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
@@ -2733,7 +2733,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,13 +2763,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>123.7971820797026</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2949,13 +2949,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2964,13 +2964,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>103.1686991936193</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3003,10 +3003,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>250.8904436168185</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3186,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>54.63637568893558</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3249,7 +3249,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3426,25 +3426,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>28.75188085812055</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3486,7 +3486,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>121.5943701178328</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3553,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -3672,16 +3672,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>26.13627195705825</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>144.7193406055816</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3808,7 +3808,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.237938656054</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -3900,7 +3900,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0177171766856</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3912,7 +3912,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>108.2950343703271</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4137,7 +4137,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>110.0177171766861</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4203,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>161.3555494301526</v>
       </c>
     </row>
   </sheetData>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1670.695888779115</v>
+        <v>2072.529454785695</v>
       </c>
       <c r="C2" t="n">
-        <v>1301.733371838703</v>
+        <v>1703.566937845283</v>
       </c>
       <c r="D2" t="n">
-        <v>1301.733371838703</v>
+        <v>1345.301239238533</v>
       </c>
       <c r="E2" t="n">
-        <v>1301.733371838703</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F2" t="n">
-        <v>890.7474670490953</v>
+        <v>548.527081850681</v>
       </c>
       <c r="G2" t="n">
         <v>534.603677789272</v>
@@ -4333,10 +4333,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4357,25 +4357,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2642.120401548716</v>
+        <v>2459.129294849817</v>
       </c>
       <c r="U2" t="n">
-        <v>2388.358616186807</v>
+        <v>2459.129294849817</v>
       </c>
       <c r="V2" t="n">
-        <v>2057.295728843236</v>
+        <v>2459.129294849817</v>
       </c>
       <c r="W2" t="n">
-        <v>2057.295728843236</v>
+        <v>2459.129294849817</v>
       </c>
       <c r="X2" t="n">
-        <v>2057.295728843236</v>
+        <v>2459.129294849817</v>
       </c>
       <c r="Y2" t="n">
-        <v>2057.295728843236</v>
+        <v>2459.129294849817</v>
       </c>
     </row>
     <row r="3">
@@ -4400,34 +4400,34 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>398.3338608103787</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="C4" t="n">
-        <v>398.3338608103787</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="D4" t="n">
-        <v>398.3338608103787</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="E4" t="n">
-        <v>398.3338608103787</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>398.3338608103787</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>229.3340605487111</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>71.58568798124128</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>71.58568798124128</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4512,28 +4512,28 @@
         <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>579.9823256406185</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>579.9823256406185</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>579.9823256406185</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U4" t="n">
-        <v>579.9823256406185</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V4" t="n">
-        <v>579.9823256406185</v>
+        <v>473.4444960005476</v>
       </c>
       <c r="W4" t="n">
-        <v>579.9823256406185</v>
+        <v>429.8456263007749</v>
       </c>
       <c r="X4" t="n">
-        <v>579.9823256406185</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="Y4" t="n">
-        <v>579.9823256406185</v>
+        <v>201.8560754027576</v>
       </c>
     </row>
     <row r="5">
@@ -4543,16 +4543,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>837.1179892781316</v>
+        <v>863.1126181035243</v>
       </c>
       <c r="C5" t="n">
-        <v>837.1179892781316</v>
+        <v>494.1501011631125</v>
       </c>
       <c r="D5" t="n">
-        <v>478.8522906713811</v>
+        <v>135.884402556362</v>
       </c>
       <c r="E5" t="n">
-        <v>478.8522906713811</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="F5" t="n">
         <v>67.86638588177355</v>
@@ -4570,16 +4570,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2679.366776842475</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2503.189289156645</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2284.554622128708</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U5" t="n">
-        <v>2284.554622128708</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V5" t="n">
-        <v>1953.491734785137</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="W5" t="n">
-        <v>1600.723079515023</v>
+        <v>2013.317548404538</v>
       </c>
       <c r="X5" t="n">
-        <v>1227.257321253943</v>
+        <v>1639.851790143458</v>
       </c>
       <c r="Y5" t="n">
-        <v>837.1179892781316</v>
+        <v>1249.712458167646</v>
       </c>
     </row>
     <row r="6">
@@ -4649,10 +4649,10 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>266.2060027641992</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598711</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M6" t="n">
         <v>1194.968834417902</v>
@@ -4701,7 +4701,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036445</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="C7" t="n">
         <v>53.94298182036445</v>
@@ -4731,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>471.4038777286581</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>182.2302673832261</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V7" t="n">
-        <v>182.2302673832261</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="W7" t="n">
-        <v>53.94298182036445</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="X7" t="n">
-        <v>53.94298182036445</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="Y7" t="n">
-        <v>53.94298182036445</v>
+        <v>222.8791647482714</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1524.128880426434</v>
+        <v>863.1126181035243</v>
       </c>
       <c r="C8" t="n">
-        <v>1524.128880426434</v>
+        <v>494.1501011631125</v>
       </c>
       <c r="D8" t="n">
-        <v>1524.128880426434</v>
+        <v>135.884402556362</v>
       </c>
       <c r="E8" t="n">
-        <v>1138.34062782819</v>
+        <v>73.93586029273641</v>
       </c>
       <c r="F8" t="n">
-        <v>908.9468494113166</v>
+        <v>66.99035954353293</v>
       </c>
       <c r="G8" t="n">
-        <v>491.8590676477442</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>173.6359524202537</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
@@ -4807,10 +4807,10 @@
         <v>75.17723181374775</v>
       </c>
       <c r="K8" t="n">
-        <v>478.6443448337932</v>
+        <v>192.4307036906658</v>
       </c>
       <c r="L8" t="n">
-        <v>1031.457603079992</v>
+        <v>745.243961936865</v>
       </c>
       <c r="M8" t="n">
         <v>1376.961772920177</v>
@@ -4834,22 +4834,22 @@
         <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2482.349229285934</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U8" t="n">
-        <v>2228.657526031085</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V8" t="n">
-        <v>1897.594638687514</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="W8" t="n">
-        <v>1897.594638687514</v>
+        <v>2013.317548404538</v>
       </c>
       <c r="X8" t="n">
-        <v>1524.128880426434</v>
+        <v>1639.851790143458</v>
       </c>
       <c r="Y8" t="n">
-        <v>1524.128880426434</v>
+        <v>1249.712458167646</v>
       </c>
     </row>
     <row r="9">
@@ -4883,22 +4883,22 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>172.6022336772601</v>
       </c>
       <c r="K9" t="n">
-        <v>121.5508014837215</v>
+        <v>240.2100533406172</v>
       </c>
       <c r="L9" t="n">
-        <v>625.9123413498401</v>
+        <v>377.4396513563111</v>
       </c>
       <c r="M9" t="n">
-        <v>1266.457690816945</v>
+        <v>1017.985000823416</v>
       </c>
       <c r="N9" t="n">
-        <v>1465.114432469609</v>
+        <v>1685.529400850426</v>
       </c>
       <c r="O9" t="n">
-        <v>2014.550441222332</v>
+        <v>2234.965409603149</v>
       </c>
       <c r="P9" t="n">
         <v>2405.574583200926</v>
@@ -4938,22 +4938,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>711.5283341948787</v>
+        <v>538.7834855023629</v>
       </c>
       <c r="C10" t="n">
-        <v>542.5921512669718</v>
+        <v>369.8473025744559</v>
       </c>
       <c r="D10" t="n">
-        <v>542.5921512669718</v>
+        <v>219.7306631621202</v>
       </c>
       <c r="E10" t="n">
-        <v>394.6790576845786</v>
+        <v>71.81756957972706</v>
       </c>
       <c r="F10" t="n">
-        <v>394.6790576845786</v>
+        <v>71.81756957972706</v>
       </c>
       <c r="G10" t="n">
-        <v>226.072212679962</v>
+        <v>71.81756957972706</v>
       </c>
       <c r="H10" t="n">
         <v>71.81756957972706</v>
@@ -4989,25 +4989,25 @@
         <v>1053.877663279709</v>
       </c>
       <c r="S10" t="n">
-        <v>893.1767990251184</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="T10" t="n">
-        <v>893.1767990251184</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="U10" t="n">
-        <v>893.1767990251184</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="V10" t="n">
-        <v>893.1767990251184</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="W10" t="n">
-        <v>893.1767990251184</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="X10" t="n">
-        <v>893.1767990251184</v>
+        <v>941.2245294761327</v>
       </c>
       <c r="Y10" t="n">
-        <v>893.1767990251184</v>
+        <v>720.4319503326026</v>
       </c>
     </row>
     <row r="11">
@@ -5041,10 +5041,10 @@
         <v>95.34095638192595</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5056,7 +5056,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
@@ -5077,13 +5077,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5117,31 +5117,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>842.6091804069456</v>
       </c>
       <c r="N12" t="n">
-        <v>1731.250242493492</v>
+        <v>1470.207143961552</v>
       </c>
       <c r="O12" t="n">
-        <v>2283.159972732779</v>
+        <v>2022.116874200839</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2445.740023695907</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>762.5477693179085</v>
+        <v>733.4550657171301</v>
       </c>
       <c r="C13" t="n">
-        <v>762.5477693179085</v>
+        <v>564.5188827892232</v>
       </c>
       <c r="D13" t="n">
-        <v>612.4311299055728</v>
+        <v>414.4022433768874</v>
       </c>
       <c r="E13" t="n">
-        <v>549.6145409888043</v>
+        <v>266.4891497944943</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908939</v>
+        <v>119.599202296584</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H13" t="n">
         <v>93.81666304797187</v>
@@ -5223,28 +5223,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.506784258106</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U13" t="n">
-        <v>1755.431557602304</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V13" t="n">
-        <v>1500.747069396417</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W13" t="n">
-        <v>1211.329899359456</v>
+        <v>1363.885660588917</v>
       </c>
       <c r="X13" t="n">
-        <v>983.3403484614387</v>
+        <v>1135.8961096909</v>
       </c>
       <c r="Y13" t="n">
-        <v>762.5477693179085</v>
+        <v>915.1035305473698</v>
       </c>
     </row>
     <row r="14">
@@ -5254,19 +5254,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
@@ -5275,13 +5275,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075808</v>
+        <v>852.8523611075821</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332388</v>
@@ -5296,10 +5296,10 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
@@ -5311,19 +5311,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="15">
@@ -5354,25 +5354,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>2297.690135143765</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>580.8993044876688</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C16" t="n">
-        <v>530.3315352860773</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D16" t="n">
-        <v>530.3315352860773</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E16" t="n">
-        <v>382.4184417036842</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F16" t="n">
-        <v>235.5284942057738</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5463,25 +5463,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258106</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U16" t="n">
-        <v>1755.431557602304</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V16" t="n">
-        <v>1500.747069396417</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W16" t="n">
-        <v>1211.329899359456</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X16" t="n">
-        <v>983.3403484614387</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y16" t="n">
-        <v>762.5477693179085</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="17">
@@ -5503,7 +5503,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
@@ -5518,7 +5518,7 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5530,7 +5530,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5557,7 +5557,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5591,31 +5591,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K18" t="n">
-        <v>251.562654109227</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L18" t="n">
-        <v>746.8882603249857</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="M18" t="n">
-        <v>1344.266747951538</v>
+        <v>692.9625378792909</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951538</v>
+        <v>1320.560501433898</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>1872.470231673185</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2296.093381168253</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2529.355041543135</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>614.6217844681063</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C19" t="n">
-        <v>614.6217844681063</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D19" t="n">
-        <v>464.5051450557705</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E19" t="n">
-        <v>464.5051450557705</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F19" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5697,28 +5697,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2426.846358063199</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2243.991523718104</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2024.390058741045</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W19" t="n">
-        <v>1245.052379339893</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X19" t="n">
-        <v>1017.062828441876</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y19" t="n">
-        <v>796.270249298346</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="20">
@@ -5734,40 +5734,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5828,28 +5828,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>840.8417932021785</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1468.439756756785</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>2020.349486996072</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2443.97263649114</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5949,13 +5949,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1433.701365648819</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1280.315625093766</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5977,10 +5977,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
@@ -6065,28 +6065,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1344.266747951538</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6123,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>849.3843576263199</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C25" t="n">
-        <v>680.448174698413</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D25" t="n">
-        <v>530.3315352860773</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E25" t="n">
-        <v>382.4184417036842</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F25" t="n">
-        <v>235.5284942057738</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
         <v>235.5284942057738</v>
@@ -6177,22 +6177,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1907.987318831765</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V25" t="n">
-        <v>1769.232122535068</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W25" t="n">
-        <v>1479.814952498107</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X25" t="n">
-        <v>1251.82540160009</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y25" t="n">
-        <v>1031.03282245656</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="26">
@@ -6223,10 +6223,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075807</v>
@@ -6241,7 +6241,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6302,28 +6302,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>542.9134462654469</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1140.291933891999</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1767.889897446606</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O27" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>571.6607764188008</v>
+        <v>984.5772922261132</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908939</v>
+        <v>815.6411092982063</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908939</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908939</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6411,25 +6411,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1746.193029533436</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V28" t="n">
-        <v>1491.508541327549</v>
+        <v>1722.776592304621</v>
       </c>
       <c r="W28" t="n">
-        <v>1202.091371290588</v>
+        <v>1433.359422267661</v>
       </c>
       <c r="X28" t="n">
-        <v>974.1018203925706</v>
+        <v>1205.369871369643</v>
       </c>
       <c r="Y28" t="n">
-        <v>753.3092412490405</v>
+        <v>984.5772922261132</v>
       </c>
     </row>
     <row r="29">
@@ -6454,16 +6454,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075807</v>
@@ -6539,31 +6539,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.092171589158</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N30" t="n">
-        <v>2297.690135143765</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O30" t="n">
-        <v>2297.690135143765</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2297.690135143765</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>950.7540666811333</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>781.8178837532264</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E31" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429803</v>
+        <v>198.027470314254</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6651,22 +6651,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1943.637854965528</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1688.953366759641</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1399.536196722681</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1171.546645824663</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>950.7540666811333</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6688,34 +6688,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6776,31 +6776,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>448.1846595309963</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>943.510265746755</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1540.888753373307</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N33" t="n">
-        <v>1540.888753373307</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O33" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>929.7309773356195</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>779.6143379232838</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E34" t="n">
-        <v>631.7012443408906</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429803</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6897,13 +6897,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1433.701365648819</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1205.711814750802</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>984.9192356072716</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6913,34 +6913,34 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6949,16 +6949,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -6970,19 +6970,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7013,31 +7013,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>577.3880777468471</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1174.766565373399</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1802.364528928006</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400717</v>
+        <v>680.448174698413</v>
       </c>
       <c r="C37" t="n">
-        <v>484.8112968429802</v>
+        <v>680.448174698413</v>
       </c>
       <c r="D37" t="n">
-        <v>484.8112968429802</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="E37" t="n">
-        <v>484.8112968429802</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429802</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611859</v>
+        <v>1310.8787695702</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138415</v>
+        <v>1082.889218672183</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703114</v>
+        <v>862.0966395286528</v>
       </c>
     </row>
     <row r="38">
@@ -7165,19 +7165,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7186,37 +7186,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7238,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7247,31 +7247,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>716.6687843969303</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M39" t="n">
-        <v>716.6687843969303</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N39" t="n">
-        <v>1344.266747951537</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O39" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>951.7772127656159</v>
+        <v>983.3556038098237</v>
       </c>
       <c r="C40" t="n">
-        <v>782.841029837709</v>
+        <v>814.4194208819168</v>
       </c>
       <c r="D40" t="n">
-        <v>632.7243904253733</v>
+        <v>664.3027814695811</v>
       </c>
       <c r="E40" t="n">
-        <v>484.8112968429802</v>
+        <v>516.389687887188</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429802</v>
+        <v>369.4997403892776</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578601</v>
+        <v>202.3036411041575</v>
       </c>
       <c r="H40" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T40" t="n">
-        <v>2233.736227705813</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U40" t="n">
-        <v>1944.661001050011</v>
+        <v>2157.887856924458</v>
       </c>
       <c r="V40" t="n">
-        <v>1689.976512844124</v>
+        <v>1903.203368718571</v>
       </c>
       <c r="W40" t="n">
-        <v>1400.559342807163</v>
+        <v>1613.786198681611</v>
       </c>
       <c r="X40" t="n">
-        <v>1172.569791909146</v>
+        <v>1385.796647783593</v>
       </c>
       <c r="Y40" t="n">
-        <v>951.7772127656159</v>
+        <v>1165.004068640063</v>
       </c>
     </row>
     <row r="41">
@@ -7402,58 +7402,58 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311171</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7475,7 +7475,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7484,34 +7484,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>245.2306927803938</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>315.9123021921476</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M42" t="n">
-        <v>913.2907898186995</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N42" t="n">
-        <v>1540.888753373306</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O42" t="n">
-        <v>2092.798483612593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G43" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7627,28 +7627,28 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111726</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075807</v>
@@ -7657,40 +7657,40 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7712,7 +7712,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7721,31 +7721,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>251.5626541092265</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L45" t="n">
-        <v>746.8882603249853</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M45" t="n">
-        <v>1344.266747951537</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N45" t="n">
-        <v>1344.266747951537</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O45" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
         <v>2553.061288060775</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400717</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G46" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703114</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
   </sheetData>
@@ -8057,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719077</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747073</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8297,10 +8297,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>145.0294169142012</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050821</v>
       </c>
       <c r="M6" t="n">
         <v>465.7050637499999</v>
@@ -8455,13 +8455,13 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>324.1454125711647</v>
+        <v>35.04072454780376</v>
       </c>
       <c r="L8" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M8" t="n">
-        <v>160.4088454694715</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N8" t="n">
         <v>437.3469244119842</v>
@@ -8531,25 +8531,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>6.233205181928369</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>473.6238973478236</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>285.1863782336312</v>
+        <v>62.54499603078654</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -23415,25 +23415,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>84.24553961896834</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>139.9994244361429</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>81.26583631856553</v>
@@ -23463,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23655,10 +23655,10 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>117.1847295890522</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23667,13 +23667,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,13 +23703,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23892,25 +23892,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>46.45968844823106</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23952,7 +23952,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>99.76050189075457</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24132,22 +24132,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24189,13 +24189,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>73.85777223953474</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24369,16 +24369,16 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -24417,13 +24417,13 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V25" t="n">
-        <v>114.7699989900977</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24600,19 +24600,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>112.9489693570391</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24621,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,13 +24651,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>57.229103921942</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24837,13 +24837,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24852,13 +24852,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>62.35543909864957</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24891,10 +24891,10 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>35.29403077242569</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25074,28 +25074,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>125.1956044930017</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>65.54986409393069</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25137,7 +25137,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25314,25 +25314,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>138.4949402405073</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25374,7 +25374,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>164.9286282187582</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25560,13 +25560,13 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -25596,13 +25596,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>72.68610972170671</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25788,7 +25788,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -25800,13 +25800,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>57.22910392194174</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -26025,7 +26025,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>57.22910392194177</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26043,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>832204.8164023552</v>
+        <v>832204.8164023551</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>832204.816402355</v>
+        <v>832204.8164023552</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>832204.8164023551</v>
+        <v>832204.816402355</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>832204.8164023551</v>
+        <v>832204.816402355</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>832204.8164023551</v>
+        <v>832204.816402355</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>832204.816402355</v>
+        <v>832204.8164023552</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>832204.8164023552</v>
+        <v>832204.816402355</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>832204.8164023551</v>
+        <v>832204.816402355</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>832204.8164023551</v>
+        <v>832204.816402355</v>
       </c>
     </row>
     <row r="14">
@@ -26316,46 +26316,46 @@
         <v>595255.2831516048</v>
       </c>
       <c r="C2" t="n">
-        <v>595255.2831516048</v>
+        <v>595255.2831516046</v>
       </c>
       <c r="D2" t="n">
-        <v>595255.2831516054</v>
+        <v>595255.2831516053</v>
       </c>
       <c r="E2" t="n">
-        <v>585181.2847752543</v>
+        <v>585181.2847752545</v>
       </c>
       <c r="F2" t="n">
         <v>585181.2847752543</v>
       </c>
       <c r="G2" t="n">
+        <v>585181.2847752548</v>
+      </c>
+      <c r="H2" t="n">
         <v>585181.2847752545</v>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
         <v>585181.2847752544</v>
       </c>
-      <c r="I2" t="n">
-        <v>585181.2847752545</v>
-      </c>
       <c r="J2" t="n">
-        <v>585181.2847752545</v>
+        <v>585181.2847752544</v>
       </c>
       <c r="K2" t="n">
-        <v>585181.2847752544</v>
+        <v>585181.2847752543</v>
       </c>
       <c r="L2" t="n">
-        <v>585181.2847752542</v>
+        <v>585181.2847752548</v>
       </c>
       <c r="M2" t="n">
         <v>585181.2847752544</v>
       </c>
       <c r="N2" t="n">
-        <v>585181.2847752543</v>
+        <v>585181.2847752542</v>
       </c>
       <c r="O2" t="n">
-        <v>585181.2847752547</v>
+        <v>585181.2847752544</v>
       </c>
       <c r="P2" t="n">
-        <v>585181.2847752544</v>
+        <v>585181.2847752542</v>
       </c>
     </row>
     <row r="3">
@@ -26371,7 +26371,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>184756.2785481116</v>
+        <v>184756.2785481117</v>
       </c>
       <c r="E3" t="n">
         <v>771052.6913808064</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>124208.5107080587</v>
+        <v>124208.5107080585</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26423,13 +26423,13 @@
         <v>209922.4154630333</v>
       </c>
       <c r="D4" t="n">
-        <v>176266.9759012793</v>
+        <v>176266.9759012794</v>
       </c>
       <c r="E4" t="n">
+        <v>5677.536566682745</v>
+      </c>
+      <c r="F4" t="n">
         <v>5677.536566682744</v>
-      </c>
-      <c r="F4" t="n">
-        <v>5677.536566682745</v>
       </c>
       <c r="G4" t="n">
         <v>5677.536566682745</v>
@@ -26441,7 +26441,7 @@
         <v>5677.536566682745</v>
       </c>
       <c r="J4" t="n">
-        <v>5677.536566682745</v>
+        <v>5677.536566682744</v>
       </c>
       <c r="K4" t="n">
         <v>5677.536566682745</v>
@@ -26450,7 +26450,7 @@
         <v>5677.536566682745</v>
       </c>
       <c r="M4" t="n">
-        <v>5677.536566682744</v>
+        <v>5677.536566682745</v>
       </c>
       <c r="N4" t="n">
         <v>5677.536566682744</v>
@@ -26524,46 +26524,46 @@
         <v>-287494.0895893825</v>
       </c>
       <c r="C6" t="n">
-        <v>302473.789625162</v>
+        <v>302473.7896251618</v>
       </c>
       <c r="D6" t="n">
-        <v>146669.9835313677</v>
+        <v>146669.9835313674</v>
       </c>
       <c r="E6" t="n">
-        <v>-292671.4729961419</v>
+        <v>-293018.8522504987</v>
       </c>
       <c r="F6" t="n">
-        <v>478381.2183846644</v>
+        <v>478033.8391303075</v>
       </c>
       <c r="G6" t="n">
-        <v>478381.2183846647</v>
+        <v>478033.839130308</v>
       </c>
       <c r="H6" t="n">
-        <v>478381.2183846646</v>
+        <v>478033.8391303077</v>
       </c>
       <c r="I6" t="n">
-        <v>478381.2183846647</v>
+        <v>478033.8391303076</v>
       </c>
       <c r="J6" t="n">
-        <v>301957.9991920717</v>
+        <v>301610.6199377147</v>
       </c>
       <c r="K6" t="n">
-        <v>478381.2183846646</v>
+        <v>478033.8391303075</v>
       </c>
       <c r="L6" t="n">
-        <v>478381.2183846643</v>
+        <v>478033.839130308</v>
       </c>
       <c r="M6" t="n">
-        <v>354172.7076766059</v>
+        <v>353825.3284222491</v>
       </c>
       <c r="N6" t="n">
-        <v>478381.2183846644</v>
+        <v>478033.8391303074</v>
       </c>
       <c r="O6" t="n">
-        <v>478381.2183846648</v>
+        <v>478033.8391303076</v>
       </c>
       <c r="P6" t="n">
-        <v>478381.2183846646</v>
+        <v>478033.8391303074</v>
       </c>
     </row>
   </sheetData>
@@ -26740,7 +26740,7 @@
         <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
         <v>593.4761003380651</v>
@@ -26825,13 +26825,13 @@
         <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
     </row>
   </sheetData>
@@ -26965,7 +26965,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>215.7324361209784</v>
+        <v>215.7324361209785</v>
       </c>
       <c r="E3" t="n">
         <v>774.4994000036087</v>
@@ -26992,7 +26992,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27384,16 +27384,16 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>61.20181865356983</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27429,16 +27429,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>209.7028375347199</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27545,22 +27545,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>27.73368008926894</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27596,13 +27596,13 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>243.3601173338161</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27615,19 +27615,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>321.4685793061306</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27663,13 +27663,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>36.87391154082156</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
@@ -27776,7 +27776,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27794,10 +27794,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,25 +27818,25 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>38.22219630222452</v>
       </c>
       <c r="W7" t="n">
-        <v>159.518585629358</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27852,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>320.6013132312724</v>
       </c>
       <c r="F8" t="n">
-        <v>179.776205109007</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27906,22 +27906,22 @@
         <v>154.6528871281402</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28016,7 +28016,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -28025,10 +28025,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>152.7120966692326</v>
       </c>
       <c r="I10" t="n">
         <v>123.266557879417</v>
@@ -28061,7 +28061,7 @@
         <v>129.1731816677913</v>
       </c>
       <c r="S10" t="n">
-        <v>46.27202628807376</v>
+        <v>205.3658819001186</v>
       </c>
       <c r="T10" t="n">
         <v>223.3729047207587</v>
@@ -28076,10 +28076,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>114.1830529234965</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -31278,46 +31278,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31460,22 +31460,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31837,34 +31837,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>193.1175412796309</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>248.3870916262918</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -32074,7 +32074,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
@@ -32089,13 +32089,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>593.5422977113961</v>
       </c>
       <c r="O15" t="n">
-        <v>400.5469039565762</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32311,22 +32311,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>146.0225991093089</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
         <v>700.0808204437243</v>
@@ -32338,7 +32338,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>169.6252075171357</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32548,16 +32548,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
@@ -32566,13 +32566,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>250.1723312270667</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
@@ -32785,7 +32785,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
@@ -32797,19 +32797,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>416.4300581532626</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
@@ -33022,22 +33022,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>441.0292693655512</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O27" t="n">
         <v>700.0808204437243</v>
@@ -33046,7 +33046,7 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
@@ -33259,7 +33259,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
@@ -33271,22 +33271,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>444.2274915982894</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>360.9226811202611</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33496,34 +33496,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>344.6306853939244</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>444.2274915982894</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33660,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>200.3460366764701</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33897,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>616.5397119226052</v>
+        <v>337.5641188593844</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34134,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
         <v>101.3076196007749</v>
@@ -34213,37 +34213,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>209.9499448422518</v>
+        <v>337.5641188593844</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34371,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>146.0225991093084</v>
+        <v>173.8200325543357</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34777,10 +34777,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624589</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34798,7 +34798,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535575</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34935,25 +34935,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35014,25 +35014,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K6" t="n">
-        <v>138.3897561047524</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730086</v>
       </c>
       <c r="M6" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35096,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35111,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35175,13 +35175,13 @@
         <v>21.44873736705384</v>
       </c>
       <c r="K8" t="n">
-        <v>407.5425384040863</v>
+        <v>118.4378503807253</v>
       </c>
       <c r="L8" t="n">
         <v>558.3972305517163</v>
       </c>
       <c r="M8" t="n">
-        <v>348.9941109496813</v>
+        <v>638.0987989730422</v>
       </c>
       <c r="N8" t="n">
         <v>633.6441091513602</v>
@@ -35251,25 +35251,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>119.8578301584805</v>
       </c>
       <c r="K9" t="n">
         <v>68.29072693268387</v>
       </c>
       <c r="L9" t="n">
-        <v>509.4561008748672</v>
+        <v>138.615755571408</v>
       </c>
       <c r="M9" t="n">
         <v>647.0155045122269</v>
       </c>
       <c r="N9" t="n">
-        <v>200.663375406732</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="O9" t="n">
         <v>554.9858674269929</v>
       </c>
       <c r="P9" t="n">
-        <v>394.9738807864583</v>
+        <v>172.3324985836136</v>
       </c>
       <c r="Q9" t="n">
         <v>233.0438950105733</v>
@@ -35409,7 +35409,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K11" t="n">
         <v>479.454324036777</v>
@@ -35427,7 +35427,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
         <v>371.5675334924728</v>
@@ -35485,34 +35485,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>61.77582919629761</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>108.4053175402703</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35737,13 +35737,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>462.2005856280628</v>
       </c>
       <c r="O15" t="n">
-        <v>257.9506595121318</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35886,7 +35886,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L17" t="n">
         <v>632.0799921462688</v>
@@ -35904,7 +35904,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
         <v>129.8660843902404</v>
@@ -35959,22 +35959,22 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>8.181160134949948</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
         <v>557.4845759992799</v>
@@ -35986,7 +35986,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>23.94570355317173</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36144,7 +36144,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,16 +36196,16 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
@@ -36214,13 +36214,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>110.1905571410452</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36445,19 +36445,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>274.2960242312443</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36618,7 +36618,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,22 +36670,22 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>302.474889585677</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O27" t="n">
         <v>557.4845759992799</v>
@@ -36694,7 +36694,7 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36919,22 +36919,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>302.093457676271</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>220.9409070342396</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37086,7 +37086,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q32" t="n">
         <v>371.5675334924728</v>
@@ -37144,34 +37144,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>206.7892464195654</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>302.093457676271</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37390,25 +37390,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>57.74979223202568</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,31 +37618,31 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>477.985332142731</v>
+        <v>199.0097390795102</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
-        <v>285.7087110396415</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,34 +37855,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>71.39556506237764</v>
+        <v>199.0097390795102</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,31 +38092,31 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>8.181160134949373</v>
+        <v>35.97859357997668</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_8_29.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_8_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2216702.756629192</v>
+        <v>2218463.286931978</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283187</v>
+        <v>416855.1052283186</v>
       </c>
     </row>
     <row r="9">
@@ -658,13 +658,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -706,22 +706,22 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>6.74548282293786</v>
+        <v>181.2178631822718</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -819,13 +819,13 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -876,10 +876,10 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>43.16288100277492</v>
+        <v>274.487665874544</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -898,22 +898,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>60.46179076613115</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>170.8792364156167</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -943,10 +943,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481165</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -961,10 +961,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -992,10 +992,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H6" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250817</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229329</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1056,22 +1056,22 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.12274995491427</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1110,10 +1110,10 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>213.9154470216035</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1122,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>19.7912656416676</v>
       </c>
     </row>
     <row r="8">
@@ -1141,10 +1141,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>61.32905684098937</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>12.9169039459368</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1192,13 +1192,13 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>52.97408661271454</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1302,7 +1302,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>17.69584188176898</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1356,10 +1356,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>111.5266024655407</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>202.3860496764733</v>
       </c>
     </row>
     <row r="11">
@@ -1384,7 +1384,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1542,13 +1542,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>25.52471385612597</v>
+        <v>79.41314830963806</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1621,7 +1621,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1776,16 +1776,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>19.91555826189063</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>172.0260335000785</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1858,7 +1858,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -2016,7 +2016,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>19.91555826189063</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2061,7 +2061,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>106.5290632934499</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2098,7 +2098,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2256,7 +2256,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2295,7 +2295,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2481,19 +2481,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,16 +2523,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>55.5207962406042</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2712,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>35.6665036611733</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703271</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2769,7 +2769,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2955,22 +2955,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>103.1686991936193</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,19 +2997,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>137.9792024346624</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -3195,19 +3195,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>110.1270172505059</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>99.97427419833815</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3423,10 +3423,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>134.452563354727</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -3438,13 +3438,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,22 +3471,22 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>121.5943701178328</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3666,22 +3666,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>26.13627195705825</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3900,7 +3900,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>110.0177171766856</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3915,7 +3915,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4152,7 +4152,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4203,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>161.3555494301526</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,10 +4306,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2072.529454785695</v>
+        <v>1345.301239238533</v>
       </c>
       <c r="C2" t="n">
-        <v>1703.566937845283</v>
+        <v>1345.301239238533</v>
       </c>
       <c r="D2" t="n">
         <v>1345.301239238533</v>
@@ -4330,19 +4330,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4360,22 +4360,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2459.129294849817</v>
+        <v>2282.894567214126</v>
       </c>
       <c r="U2" t="n">
-        <v>2459.129294849817</v>
+        <v>2029.132781852218</v>
       </c>
       <c r="V2" t="n">
-        <v>2459.129294849817</v>
+        <v>1698.069894508647</v>
       </c>
       <c r="W2" t="n">
-        <v>2459.129294849817</v>
+        <v>1345.301239238533</v>
       </c>
       <c r="X2" t="n">
-        <v>2459.129294849817</v>
+        <v>1345.301239238533</v>
       </c>
       <c r="Y2" t="n">
-        <v>2459.129294849817</v>
+        <v>1345.301239238533</v>
       </c>
     </row>
     <row r="3">
@@ -4409,16 +4409,16 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>266.2060027641987</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598706</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417901</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
         <v>1748.695370517453</v>
@@ -4433,7 +4433,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4464,13 +4464,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>201.8560754027576</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="C4" t="n">
-        <v>201.8560754027576</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>201.8560754027576</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
         <v>53.94298182036445</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>473.4444960005476</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W4" t="n">
-        <v>429.8456263007749</v>
+        <v>450.8687156462887</v>
       </c>
       <c r="X4" t="n">
-        <v>201.8560754027576</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="Y4" t="n">
-        <v>201.8560754027576</v>
+        <v>222.8791647482714</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>863.1126181035243</v>
+        <v>1395.51153118508</v>
       </c>
       <c r="C5" t="n">
-        <v>494.1501011631125</v>
+        <v>1395.51153118508</v>
       </c>
       <c r="D5" t="n">
-        <v>135.884402556362</v>
+        <v>1037.245832578329</v>
       </c>
       <c r="E5" t="n">
-        <v>74.81188663097703</v>
+        <v>651.4575799800848</v>
       </c>
       <c r="F5" t="n">
-        <v>67.86638588177355</v>
+        <v>644.5120792308813</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>226.5482711290682</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J5" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V5" t="n">
-        <v>2366.086203674652</v>
+        <v>2134.880026519315</v>
       </c>
       <c r="W5" t="n">
-        <v>2013.317548404538</v>
+        <v>1782.111371249201</v>
       </c>
       <c r="X5" t="n">
-        <v>1639.851790143458</v>
+        <v>1782.111371249201</v>
       </c>
       <c r="Y5" t="n">
-        <v>1249.712458167646</v>
+        <v>1782.111371249201</v>
       </c>
     </row>
     <row r="6">
@@ -4637,25 +4637,25 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J6" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>384.4474646615929</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598713</v>
+        <v>789.0633827572649</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
         <v>1748.695370517453</v>
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>222.8791647482714</v>
+        <v>678.7208876442307</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036445</v>
+        <v>678.7208876442307</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>528.604248231895</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>380.6911546495019</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>380.6911546495019</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.7169011658211</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502503</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594904</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600566</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600566</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600566</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600566</v>
       </c>
       <c r="U7" t="n">
-        <v>438.9553738610022</v>
+        <v>698.7120650600566</v>
       </c>
       <c r="V7" t="n">
-        <v>222.8791647482714</v>
+        <v>698.7120650600566</v>
       </c>
       <c r="W7" t="n">
-        <v>222.8791647482714</v>
+        <v>698.7120650600566</v>
       </c>
       <c r="X7" t="n">
-        <v>222.8791647482714</v>
+        <v>698.7120650600566</v>
       </c>
       <c r="Y7" t="n">
-        <v>222.8791647482714</v>
+        <v>678.7208876442307</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>863.1126181035243</v>
+        <v>1710.685703078436</v>
       </c>
       <c r="C8" t="n">
-        <v>494.1501011631125</v>
+        <v>1341.723186138024</v>
       </c>
       <c r="D8" t="n">
-        <v>135.884402556362</v>
+        <v>983.457487531274</v>
       </c>
       <c r="E8" t="n">
-        <v>73.93586029273641</v>
+        <v>597.6692349330297</v>
       </c>
       <c r="F8" t="n">
-        <v>66.99035954353293</v>
+        <v>186.6833301434222</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>173.6359524202537</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>173.6359524202537</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>75.17723181374775</v>
+        <v>242.5828808341008</v>
       </c>
       <c r="K8" t="n">
-        <v>192.4307036906658</v>
+        <v>646.0499938541462</v>
       </c>
       <c r="L8" t="n">
-        <v>745.243961936865</v>
+        <v>1094.46325341956</v>
       </c>
       <c r="M8" t="n">
-        <v>1376.961772920177</v>
+        <v>1281.162666244968</v>
       </c>
       <c r="N8" t="n">
-        <v>2004.269440980023</v>
+        <v>1475.49687913695</v>
       </c>
       <c r="O8" t="n">
-        <v>2551.430645747101</v>
+        <v>2022.658083904028</v>
       </c>
       <c r="P8" t="n">
-        <v>2662.164970996627</v>
+        <v>2451.973130243322</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2540.934053515051</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2540.934053515051</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018222</v>
+        <v>2540.934053515051</v>
       </c>
       <c r="V8" t="n">
-        <v>2366.086203674652</v>
+        <v>2540.934053515051</v>
       </c>
       <c r="W8" t="n">
-        <v>2013.317548404538</v>
+        <v>2540.934053515051</v>
       </c>
       <c r="X8" t="n">
-        <v>1639.851790143458</v>
+        <v>2487.42487511837</v>
       </c>
       <c r="Y8" t="n">
-        <v>1249.712458167646</v>
+        <v>2097.285543142558</v>
       </c>
     </row>
     <row r="9">
@@ -4871,34 +4871,34 @@
         <v>484.7397722991365</v>
       </c>
       <c r="F9" t="n">
-        <v>338.2052143260214</v>
+        <v>338.2052143260215</v>
       </c>
       <c r="G9" t="n">
         <v>200.7638166852434</v>
       </c>
       <c r="H9" t="n">
-        <v>99.84783883004796</v>
+        <v>99.84783883004798</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
         <v>172.6022336772601</v>
       </c>
       <c r="K9" t="n">
-        <v>240.2100533406172</v>
+        <v>502.03063798307</v>
       </c>
       <c r="L9" t="n">
-        <v>377.4396513563111</v>
+        <v>1006.392177849189</v>
       </c>
       <c r="M9" t="n">
-        <v>1017.985000823416</v>
+        <v>1185.889514203793</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.529400850426</v>
+        <v>1432.170805967367</v>
       </c>
       <c r="O9" t="n">
-        <v>2234.965409603149</v>
+        <v>1981.606814720089</v>
       </c>
       <c r="P9" t="n">
         <v>2405.574583200926</v>
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>538.7834855023629</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="C10" t="n">
-        <v>369.8473025744559</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D10" t="n">
-        <v>219.7306631621202</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E10" t="n">
-        <v>71.81756957972706</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F10" t="n">
-        <v>71.81756957972706</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G10" t="n">
-        <v>71.81756957972706</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H10" t="n">
-        <v>71.81756957972706</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I10" t="n">
-        <v>71.81756957972706</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
         <v>154.9909114159743</v>
@@ -5004,10 +5004,10 @@
         <v>1053.877663279709</v>
       </c>
       <c r="X10" t="n">
-        <v>941.2245294761327</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="Y10" t="n">
-        <v>720.4319503326026</v>
+        <v>849.4473100711502</v>
       </c>
     </row>
     <row r="11">
@@ -5023,13 +5023,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
@@ -5038,13 +5038,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J11" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5077,13 +5077,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5123,22 +5123,22 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>245.2306927803937</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>842.6091804069456</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>1470.207143961552</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
-        <v>2022.116874200839</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="P12" t="n">
-        <v>2445.740023695907</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>733.4550657171301</v>
+        <v>869.9745311434712</v>
       </c>
       <c r="C13" t="n">
-        <v>564.5188827892232</v>
+        <v>701.0383482155643</v>
       </c>
       <c r="D13" t="n">
-        <v>414.4022433768874</v>
+        <v>550.9217088032285</v>
       </c>
       <c r="E13" t="n">
-        <v>266.4891497944943</v>
+        <v>403.0086152208354</v>
       </c>
       <c r="F13" t="n">
-        <v>119.599202296584</v>
+        <v>256.118667722925</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5223,28 +5223,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>2197.062545487567</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U13" t="n">
-        <v>1907.987318831765</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="V13" t="n">
-        <v>1653.302830625878</v>
+        <v>1789.822296052219</v>
       </c>
       <c r="W13" t="n">
-        <v>1363.885660588917</v>
+        <v>1500.405126015258</v>
       </c>
       <c r="X13" t="n">
-        <v>1135.8961096909</v>
+        <v>1272.415575117241</v>
       </c>
       <c r="Y13" t="n">
-        <v>915.1035305473698</v>
+        <v>1051.622995973711</v>
       </c>
     </row>
     <row r="14">
@@ -5254,10 +5254,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004712</v>
@@ -5266,7 +5266,7 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
@@ -5278,28 +5278,28 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075821</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
@@ -5311,19 +5311,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5357,22 +5357,22 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516142</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L15" t="n">
-        <v>1074.481071167373</v>
+        <v>590.9096564684977</v>
       </c>
       <c r="M15" t="n">
-        <v>1671.859558793925</v>
+        <v>1188.28814409505</v>
       </c>
       <c r="N15" t="n">
-        <v>2129.438138565707</v>
+        <v>1815.886107649656</v>
       </c>
       <c r="O15" t="n">
-        <v>2129.438138565707</v>
+        <v>2367.795837888943</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1098.667160263527</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356195</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232838</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5460,28 +5460,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2426.846358063199</v>
       </c>
       <c r="S16" t="n">
-        <v>2446.96308358026</v>
+        <v>2243.991523718104</v>
       </c>
       <c r="T16" t="n">
-        <v>2446.96308358026</v>
+        <v>2024.390058741045</v>
       </c>
       <c r="U16" t="n">
-        <v>2273.199413378161</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V16" t="n">
-        <v>2018.514925172274</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W16" t="n">
-        <v>1729.097755135313</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X16" t="n">
-        <v>1501.108204237296</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y16" t="n">
-        <v>1280.315625093766</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="17">
@@ -5497,13 +5497,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
@@ -5518,7 +5518,7 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5530,7 +5530,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5594,28 +5594,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>95.58405025273903</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>95.58405025273903</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>692.9625378792909</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1320.560501433898</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>1872.470231673185</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2296.093381168253</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2529.355041543135</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5649,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>560.7825789706076</v>
+        <v>727.9786782557277</v>
       </c>
       <c r="C19" t="n">
-        <v>391.8463960427007</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D19" t="n">
-        <v>241.729756630365</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E19" t="n">
-        <v>93.81666304797187</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F19" t="n">
-        <v>93.81666304797187</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G19" t="n">
         <v>93.81666304797187</v>
@@ -5697,28 +5697,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2426.846358063199</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2243.991523718104</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>2024.390058741045</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U19" t="n">
-        <v>1735.314832085242</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V19" t="n">
-        <v>1480.630343879355</v>
+        <v>1647.826443164475</v>
       </c>
       <c r="W19" t="n">
-        <v>1191.213173842395</v>
+        <v>1358.409273127515</v>
       </c>
       <c r="X19" t="n">
-        <v>963.2236229443774</v>
+        <v>1130.419722229497</v>
       </c>
       <c r="Y19" t="n">
-        <v>742.4310438008473</v>
+        <v>909.6271430859674</v>
       </c>
     </row>
     <row r="20">
@@ -5734,37 +5734,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I20" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5831,19 +5831,19 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L21" t="n">
-        <v>1074.481071167373</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M21" t="n">
-        <v>1671.859558793925</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N21" t="n">
-        <v>2299.457522348532</v>
+        <v>2149.810879820877</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G22" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5943,19 +5943,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="23">
@@ -5977,22 +5977,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188008</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908939</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908939</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908939</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6171,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2390.881471216014</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U25" t="n">
-        <v>1746.193029533436</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V25" t="n">
-        <v>1491.508541327549</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W25" t="n">
-        <v>1202.091371290588</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X25" t="n">
-        <v>974.1018203925706</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490405</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="26">
@@ -6211,37 +6211,37 @@
         <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6302,13 +6302,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L27" t="n">
         <v>1074.481071167373</v>
@@ -6317,7 +6317,7 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>984.5772922261132</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C28" t="n">
-        <v>815.6411092982063</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D28" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E28" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1977.461080510508</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1722.776592304621</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1433.359422267661</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>1205.369871369643</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y28" t="n">
-        <v>984.5772922261132</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="29">
@@ -6472,13 +6472,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6551,10 +6551,10 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121643</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121643</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121643</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F31" t="n">
-        <v>198.027470314254</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6645,28 +6645,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>2157.887856924458</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="32">
@@ -6688,31 +6688,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
         <v>3640.422291068009</v>
@@ -6776,16 +6776,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>280.8495004245705</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M33" t="n">
         <v>1373.553594266881</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>915.1035305473703</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121643</v>
+        <v>746.1673476194634</v>
       </c>
       <c r="D34" t="n">
-        <v>194.8007783998286</v>
+        <v>596.0507082071276</v>
       </c>
       <c r="E34" t="n">
-        <v>194.8007783998286</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F34" t="n">
-        <v>194.8007783998286</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1363.885660588918</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>1135.8961096909</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>915.1035305473703</v>
       </c>
     </row>
     <row r="35">
@@ -7025,16 +7025,16 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793925</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="N36" t="n">
-        <v>2299.457522348532</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>680.448174698413</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C37" t="n">
-        <v>680.448174698413</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D37" t="n">
-        <v>530.3315352860773</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E37" t="n">
-        <v>382.4184417036842</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F37" t="n">
-        <v>235.5284942057738</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7119,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1972.677130397314</v>
       </c>
       <c r="W37" t="n">
-        <v>1310.8787695702</v>
+        <v>1683.259960360354</v>
       </c>
       <c r="X37" t="n">
-        <v>1082.889218672183</v>
+        <v>1455.270409462336</v>
       </c>
       <c r="Y37" t="n">
-        <v>862.0966395286528</v>
+        <v>1234.477830318806</v>
       </c>
     </row>
     <row r="38">
@@ -7259,7 +7259,7 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
         <v>1373.553594266881</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>983.3556038098237</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>814.4194208819168</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>664.3027814695811</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E40" t="n">
-        <v>516.389687887188</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F40" t="n">
-        <v>369.4997403892776</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G40" t="n">
-        <v>202.3036411041575</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7356,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>2157.887856924458</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1903.203368718571</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1613.786198681611</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1385.796647783593</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>1165.004068640063</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7408,16 +7408,16 @@
         <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
         <v>2206.558663014778</v>
@@ -7426,7 +7426,7 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7487,28 +7487,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>776.1751066403293</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>1373.553594266881</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="N42" t="n">
-        <v>2001.151557821488</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O42" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7548,19 +7548,19 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7639,19 +7639,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7724,19 +7724,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>280.8495004245706</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L45" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
         <v>2001.151557821488</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7806,52 +7806,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
   </sheetData>
@@ -8057,13 +8057,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>221.0467526719077</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050816</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
@@ -8300,13 +8300,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>251.4045252050821</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451757</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8452,28 +8452,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>35.04072454780376</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L8" t="n">
-        <v>417.6612145504504</v>
+        <v>312.2066704284453</v>
       </c>
       <c r="M8" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8534,22 +8534,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>473.6238973478236</v>
+        <v>48.10560617263477</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>62.54499603078654</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -23430,13 +23430,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>139.9994244361429</v>
+        <v>86.11098998263078</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,16 +23463,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23664,16 +23664,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,16 +23700,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>46.45968844823106</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>114.1584408891656</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23904,7 +23904,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>46.45968844823106</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23949,7 +23949,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>145.6085800303781</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24144,7 +24144,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -24183,7 +24183,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24369,19 +24369,19 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24411,16 +24411,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>125.5054897610404</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24600,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>112.9489693570391</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24657,7 +24657,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24843,22 +24843,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>62.35543909864957</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,19 +24885,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -25083,19 +25083,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>36.30694539606323</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>65.54986409393069</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25128,7 +25128,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25311,10 +25311,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>45.37941682721026</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -25326,13 +25326,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,22 +25359,22 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>164.9286282187582</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25554,22 +25554,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>114.1584408891656</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,13 +25596,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25788,7 +25788,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -25803,7 +25803,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -26040,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>832204.8164023552</v>
+        <v>832204.816402355</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>832204.816402355</v>
+        <v>832204.8164023551</v>
       </c>
     </row>
     <row r="8">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>832204.8164023552</v>
+        <v>832204.816402355</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>832204.816402355</v>
+        <v>832204.8164023552</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>832204.816402355</v>
+        <v>832204.8164023552</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>832204.816402355</v>
+        <v>832204.8164023552</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>832204.8164023552</v>
+        <v>832204.816402355</v>
       </c>
     </row>
     <row r="15">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>595255.2831516048</v>
+        <v>595255.2831516049</v>
       </c>
       <c r="C2" t="n">
-        <v>595255.2831516046</v>
+        <v>595255.2831516047</v>
       </c>
       <c r="D2" t="n">
-        <v>595255.2831516053</v>
+        <v>595255.2831516059</v>
       </c>
       <c r="E2" t="n">
         <v>585181.2847752545</v>
       </c>
       <c r="F2" t="n">
+        <v>585181.2847752544</v>
+      </c>
+      <c r="G2" t="n">
+        <v>585181.2847752545</v>
+      </c>
+      <c r="H2" t="n">
+        <v>585181.2847752544</v>
+      </c>
+      <c r="I2" t="n">
         <v>585181.2847752543</v>
       </c>
-      <c r="G2" t="n">
-        <v>585181.2847752548</v>
-      </c>
-      <c r="H2" t="n">
-        <v>585181.2847752545</v>
-      </c>
-      <c r="I2" t="n">
-        <v>585181.2847752544</v>
-      </c>
       <c r="J2" t="n">
-        <v>585181.2847752544</v>
+        <v>585181.2847752542</v>
       </c>
       <c r="K2" t="n">
         <v>585181.2847752543</v>
       </c>
       <c r="L2" t="n">
-        <v>585181.2847752548</v>
+        <v>585181.2847752541</v>
       </c>
       <c r="M2" t="n">
+        <v>585181.2847752542</v>
+      </c>
+      <c r="N2" t="n">
         <v>585181.2847752544</v>
       </c>
-      <c r="N2" t="n">
-        <v>585181.2847752542</v>
-      </c>
       <c r="O2" t="n">
-        <v>585181.2847752544</v>
+        <v>585181.2847752545</v>
       </c>
       <c r="P2" t="n">
-        <v>585181.2847752542</v>
+        <v>585181.2847752543</v>
       </c>
     </row>
     <row r="3">
@@ -26365,13 +26365,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.07046923605958e-10</v>
       </c>
       <c r="D3" t="n">
-        <v>184756.2785481117</v>
+        <v>184756.2785481114</v>
       </c>
       <c r="E3" t="n">
         <v>771052.6913808064</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925932</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>1.62584001373034e-10</v>
       </c>
       <c r="M3" t="n">
-        <v>124208.5107080585</v>
+        <v>124208.5107080583</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26407,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>1.513344614068046e-10</v>
       </c>
     </row>
     <row r="4">
@@ -26420,13 +26420,13 @@
         <v>209922.4154630333</v>
       </c>
       <c r="C4" t="n">
-        <v>209922.4154630333</v>
+        <v>209922.4154630332</v>
       </c>
       <c r="D4" t="n">
-        <v>176266.9759012794</v>
+        <v>176266.9759012793</v>
       </c>
       <c r="E4" t="n">
-        <v>5677.536566682745</v>
+        <v>5677.536566682744</v>
       </c>
       <c r="F4" t="n">
         <v>5677.536566682744</v>
@@ -26441,7 +26441,7 @@
         <v>5677.536566682745</v>
       </c>
       <c r="J4" t="n">
-        <v>5677.536566682744</v>
+        <v>5677.536566682745</v>
       </c>
       <c r="K4" t="n">
         <v>5677.536566682745</v>
@@ -26453,13 +26453,13 @@
         <v>5677.536566682745</v>
       </c>
       <c r="N4" t="n">
+        <v>5677.536566682745</v>
+      </c>
+      <c r="O4" t="n">
+        <v>5677.536566682745</v>
+      </c>
+      <c r="P4" t="n">
         <v>5677.536566682744</v>
-      </c>
-      <c r="O4" t="n">
-        <v>5677.536566682744</v>
-      </c>
-      <c r="P4" t="n">
-        <v>5677.536566682745</v>
       </c>
     </row>
     <row r="5">
@@ -26472,7 +26472,7 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340948</v>
       </c>
       <c r="D5" t="n">
         <v>87562.0451708468</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-287494.0895893825</v>
+        <v>-287494.0895893823</v>
       </c>
       <c r="C6" t="n">
-        <v>302473.7896251618</v>
+        <v>302473.7896251617</v>
       </c>
       <c r="D6" t="n">
-        <v>146669.9835313674</v>
+        <v>146669.9835313683</v>
       </c>
       <c r="E6" t="n">
-        <v>-293018.8522504987</v>
+        <v>-292706.2109215774</v>
       </c>
       <c r="F6" t="n">
-        <v>478033.8391303075</v>
+        <v>478346.4804592289</v>
       </c>
       <c r="G6" t="n">
-        <v>478033.839130308</v>
+        <v>478346.480459229</v>
       </c>
       <c r="H6" t="n">
-        <v>478033.8391303077</v>
+        <v>478346.4804592289</v>
       </c>
       <c r="I6" t="n">
-        <v>478033.8391303076</v>
+        <v>478346.4804592287</v>
       </c>
       <c r="J6" t="n">
-        <v>301610.6199377147</v>
+        <v>301923.2612666355</v>
       </c>
       <c r="K6" t="n">
-        <v>478033.8391303075</v>
+        <v>478346.4804592289</v>
       </c>
       <c r="L6" t="n">
-        <v>478033.839130308</v>
+        <v>478346.4804592284</v>
       </c>
       <c r="M6" t="n">
-        <v>353825.3284222491</v>
+        <v>354137.9697511703</v>
       </c>
       <c r="N6" t="n">
-        <v>478033.8391303074</v>
+        <v>478346.4804592289</v>
       </c>
       <c r="O6" t="n">
-        <v>478033.8391303076</v>
+        <v>478346.480459229</v>
       </c>
       <c r="P6" t="n">
-        <v>478033.8391303074</v>
+        <v>478346.4804592286</v>
       </c>
     </row>
   </sheetData>
@@ -26737,10 +26737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170869</v>
       </c>
       <c r="D3" t="n">
         <v>593.4761003380651</v>
@@ -26792,10 +26792,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26959,13 +26959,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="D3" t="n">
-        <v>215.7324361209785</v>
+        <v>215.7324361209782</v>
       </c>
       <c r="E3" t="n">
         <v>774.4994000036087</v>
@@ -26983,13 +26983,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -27001,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
     </row>
     <row r="4">
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>498.4210153450928</v>
+        <v>498.4210153450927</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.4210153450928</v>
+        <v>498.4210153450927</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.4210153450928</v>
+        <v>498.4210153450927</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,13 +27378,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27432,16 +27432,16 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>209.7028375347199</v>
+        <v>35.23045717538596</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -27539,13 +27539,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27560,7 +27560,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27596,10 +27596,10 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>243.3601173338161</v>
+        <v>12.03533246204699</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27618,25 +27618,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>321.4685793061306</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>153.0435363487404</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,10 +27663,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
@@ -27681,10 +27681,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27776,28 +27776,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853701</v>
+        <v>45.19995918853697</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,10 +27818,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27830,10 +27830,10 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>38.22219630222452</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27842,7 +27842,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>198.7933877104272</v>
       </c>
     </row>
     <row r="8">
@@ -27861,10 +27861,10 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>320.6013132312724</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27873,7 +27873,7 @@
         <v>315.0408840752156</v>
       </c>
       <c r="I8" t="n">
-        <v>118.4960408938903</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>154.6528871281402</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>212.651863114966</v>
@@ -27912,13 +27912,13 @@
         <v>251.1547862223006</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>316.7570140657545</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28022,7 +28022,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.9207765545704</v>
@@ -28034,7 +28034,7 @@
         <v>123.266557879417</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>17.69584188176898</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28076,10 +28076,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>114.1830529234965</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>16.19860367562146</v>
       </c>
     </row>
     <row r="11">
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141001</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554465</v>
+        <v>58.5445733255447</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405369</v>
       </c>
       <c r="N5" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338306</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954668</v>
       </c>
       <c r="Q5" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633803</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473557</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141114</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188919</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.97441286890691</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396475</v>
+        <v>76.7639270839648</v>
       </c>
       <c r="K6" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L6" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M6" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N6" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736702</v>
       </c>
       <c r="O6" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034985</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372667</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619156</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078614</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644446</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492006</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.1592209281358</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302244</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31457,28 +31457,28 @@
         <v>106.777606591725</v>
       </c>
       <c r="N7" t="n">
-        <v>104.2386737666594</v>
+        <v>104.2386737666595</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175849</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383805</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678012</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701166</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197225</v>
       </c>
       <c r="U7" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315612</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31843,10 +31843,10 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
         <v>745.5466476862121</v>
@@ -31855,13 +31855,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>390.1398273256871</v>
       </c>
       <c r="Q12" t="n">
-        <v>248.3870916262918</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
@@ -32077,10 +32077,10 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
         <v>638.8832749473072</v>
@@ -32089,13 +32089,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>593.5422977113961</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>321.1112257697157</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32314,13 +32314,13 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
@@ -32329,16 +32329,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>169.6252075171357</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32551,7 +32551,7 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
         <v>475.1391886422585</v>
@@ -32566,7 +32566,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>398.7616643558013</v>
+        <v>549.9198891312103</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
         <v>101.3076196007749</v>
@@ -33028,19 +33028,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>463.9598929192557</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33271,13 +33271,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>444.2274915982894</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
         <v>101.3076196007749</v>
@@ -33502,19 +33502,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>173.8200325543355</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>444.2274915982894</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33745,19 +33745,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>414.6448185524877</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
@@ -33979,10 +33979,10 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>337.5641188593844</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>444.2274915982894</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
@@ -34207,7 +34207,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
@@ -34216,22 +34216,22 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>337.5641188593844</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>416.4300581532626</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34371,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
@@ -34450,19 +34450,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>173.8200325543357</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34474,13 +34474,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34777,25 +34777,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
-        <v>214.4070918624589</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730081</v>
       </c>
       <c r="M3" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060967</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116799</v>
       </c>
       <c r="Q5" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,25 +35014,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770689</v>
+        <v>76.01733575770695</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031299</v>
       </c>
       <c r="L6" t="n">
-        <v>289.2671274730086</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262939</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355125</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245899</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35096,10 +35096,10 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713958</v>
       </c>
       <c r="L7" t="n">
-        <v>128.8624823850085</v>
+        <v>128.8624823850086</v>
       </c>
       <c r="M7" t="n">
         <v>146.3614835535656</v>
@@ -35108,10 +35108,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O7" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873154</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>21.44873736705384</v>
+        <v>190.5453525391276</v>
       </c>
       <c r="K8" t="n">
-        <v>118.4378503807253</v>
+        <v>407.5425384040863</v>
       </c>
       <c r="L8" t="n">
-        <v>558.3972305517163</v>
+        <v>452.9426864297112</v>
       </c>
       <c r="M8" t="n">
-        <v>638.0987989730422</v>
+        <v>188.5852654802098</v>
       </c>
       <c r="N8" t="n">
-        <v>633.6441091513602</v>
+        <v>196.2971847393761</v>
       </c>
       <c r="O8" t="n">
         <v>552.6880856233105</v>
       </c>
       <c r="P8" t="n">
-        <v>111.8528537874005</v>
+        <v>433.6515619588832</v>
       </c>
       <c r="Q8" t="n">
-        <v>35.33749497130819</v>
+        <v>247.6524856312129</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35254,22 +35254,22 @@
         <v>119.8578301584805</v>
       </c>
       <c r="K9" t="n">
-        <v>68.29072693268387</v>
+        <v>332.7559639452625</v>
       </c>
       <c r="L9" t="n">
-        <v>138.615755571408</v>
+        <v>509.4561008748672</v>
       </c>
       <c r="M9" t="n">
-        <v>647.0155045122269</v>
+        <v>181.3104407622271</v>
       </c>
       <c r="N9" t="n">
-        <v>674.2872727545556</v>
+        <v>248.7689815793668</v>
       </c>
       <c r="O9" t="n">
         <v>554.9858674269929</v>
       </c>
       <c r="P9" t="n">
-        <v>172.3324985836136</v>
+        <v>428.2502711927643</v>
       </c>
       <c r="Q9" t="n">
         <v>233.0438950105733</v>
@@ -35409,7 +35409,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
         <v>479.454324036777</v>
@@ -35491,10 +35491,10 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
@@ -35503,13 +35503,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="Q12" t="n">
-        <v>108.4053175402703</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35725,10 +35725,10 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>500.328895167433</v>
@@ -35737,13 +35737,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>462.2005856280628</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>187.1368183553855</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35886,7 +35886,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367776</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
         <v>632.0799921462688</v>
@@ -35907,7 +35907,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,13 +35962,13 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
@@ -35977,16 +35977,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>23.94570355317173</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36199,7 +36199,7 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>337.2977496678996</v>
@@ -36214,7 +36214,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>256.1654199113569</v>
+        <v>407.3236446867659</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36366,7 +36366,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
         <v>751.8584478193516</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36679,16 +36679,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>332.6181808359224</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36919,13 +36919,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>302.093457676271</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,25 +37144,25 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>35.97859357997653</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
-        <v>302.093457676271</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37393,19 +37393,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>272.5107846304694</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37627,10 +37627,10 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>199.0097390795102</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>302.093457676271</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37864,22 +37864,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>199.0097390795102</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>274.2960242312443</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,25 +38092,25 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>35.97859357997668</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
